--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1334774.061584904</v>
+        <v>1331885.331998903</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767341</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="G2" t="n">
         <v>13.93890542723723</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="T2" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="U2" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.401342158599119</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,55 +738,55 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.27738790031055</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="S3" t="n">
         <v>13.93890542723723</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>12.27738790031055</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>13.93890542723723</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="G5" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="I5" t="n">
-        <v>5.401342158599112</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="I6" t="n">
         <v>13.93890542723723</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,52 +1063,52 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>12.27738790031055</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,58 +1133,58 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>78.48408095183343</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>112.1126601249236</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>69.11209925255302</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>29.63673178547967</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>112.1126601249236</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>112.1126601249236</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.3795605943593</v>
+      </c>
+      <c r="F9" t="n">
         <v>112.1126601249236</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="H9" t="n">
-        <v>8.037790645995637</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
         <v>54.13711731454487</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.5739230774922</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.1126601249236</v>
+        <v>98.74883103803269</v>
       </c>
       <c r="D10" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="F10" t="n">
         <v>112.1126601249236</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698834</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.09050661104435</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>63.73277769123513</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>230.2267521569513</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2774504197845</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>141.5771154083317</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>54.54415092700179</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>410.2093301463886</v>
       </c>
       <c r="H14" t="n">
-        <v>287.3119439005927</v>
+        <v>210.6023538770213</v>
       </c>
       <c r="I14" t="n">
-        <v>14.11230198680877</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.95404917093583</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.7994588074438</v>
       </c>
       <c r="U14" t="n">
         <v>250.9381803183368</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>134.6183039658667</v>
       </c>
       <c r="H15" t="n">
-        <v>85.91562204109607</v>
+        <v>85.91562204109609</v>
       </c>
       <c r="I15" t="n">
-        <v>5.693767723027705</v>
+        <v>5.693767723027719</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168.5179211436113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7062521596501</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.9138706853049</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.56374841983022</v>
+        <v>74.56374841983025</v>
       </c>
       <c r="S16" t="n">
         <v>184.200034035917</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.1835732151902</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1944078729195</v>
+        <v>50.63611471916082</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,22 +1844,22 @@
         <v>355.9372332777505</v>
       </c>
       <c r="C17" t="n">
-        <v>338.4762833852774</v>
+        <v>338.4762833852775</v>
       </c>
       <c r="D17" t="n">
-        <v>327.8864332349528</v>
+        <v>327.8864332349529</v>
       </c>
       <c r="E17" t="n">
         <v>355.1337616865317</v>
       </c>
       <c r="F17" t="n">
-        <v>380.0794373559813</v>
+        <v>380.0794373559814</v>
       </c>
       <c r="G17" t="n">
         <v>383.4127217606585</v>
       </c>
       <c r="H17" t="n">
-        <v>260.5153355148626</v>
+        <v>260.5153355148627</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.15744078520575</v>
+        <v>66.15744078520581</v>
       </c>
       <c r="T17" t="n">
-        <v>174.0028504217137</v>
+        <v>174.0028504217138</v>
       </c>
       <c r="U17" t="n">
-        <v>224.1415719326067</v>
+        <v>224.1415719326068</v>
       </c>
       <c r="V17" t="n">
-        <v>300.9556500844048</v>
+        <v>178.6922698199834</v>
       </c>
       <c r="W17" t="n">
-        <v>200.1809800672639</v>
+        <v>322.444360331683</v>
       </c>
       <c r="X17" t="n">
-        <v>342.9344922927389</v>
+        <v>342.934492292739</v>
       </c>
       <c r="Y17" t="n">
         <v>359.4413302703235</v>
@@ -1938,10 +1938,10 @@
         <v>134.6183039658667</v>
       </c>
       <c r="H18" t="n">
-        <v>85.91562204109607</v>
+        <v>85.91562204109609</v>
       </c>
       <c r="I18" t="n">
-        <v>5.693767723027705</v>
+        <v>5.693767723027719</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.0353717962072</v>
+        <v>153.0353717962073</v>
       </c>
       <c r="C19" t="n">
-        <v>63.90672150803689</v>
+        <v>140.4502127128978</v>
       </c>
       <c r="D19" t="n">
         <v>121.8188646324823</v>
@@ -2014,7 +2014,7 @@
         <v>118.6244396372012</v>
       </c>
       <c r="G19" t="n">
-        <v>138.9096437739201</v>
+        <v>62.36615256905689</v>
       </c>
       <c r="H19" t="n">
         <v>115.1172622995749</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.76714003410013</v>
+        <v>47.76714003410022</v>
       </c>
       <c r="S19" t="n">
-        <v>157.4034256501869</v>
+        <v>157.403425650187</v>
       </c>
       <c r="T19" t="n">
-        <v>191.3869648294601</v>
+        <v>191.3869648294602</v>
       </c>
       <c r="U19" t="n">
         <v>259.3977994871894</v>
       </c>
       <c r="V19" t="n">
-        <v>225.3410349380979</v>
+        <v>225.341034938098</v>
       </c>
       <c r="W19" t="n">
         <v>259.7263899508609</v>
@@ -2068,7 +2068,7 @@
         <v>198.9130470033071</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.7880449663647</v>
+        <v>191.7880449663648</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>355.9372332777505</v>
+        <v>233.6738530133292</v>
       </c>
       <c r="C20" t="n">
         <v>338.4762833852774</v>
@@ -2135,7 +2135,7 @@
         <v>174.0028504217137</v>
       </c>
       <c r="U20" t="n">
-        <v>101.8781916681876</v>
+        <v>224.1415719326067</v>
       </c>
       <c r="V20" t="n">
         <v>300.9556500844048</v>
@@ -2242,7 +2242,7 @@
         <v>140.4502127128978</v>
       </c>
       <c r="D22" t="n">
-        <v>121.8188646324823</v>
+        <v>33.09662486254738</v>
       </c>
       <c r="E22" t="n">
         <v>119.6373542608391</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.76714003410013</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.4034256501869</v>
@@ -2305,7 +2305,7 @@
         <v>198.9130470033071</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.2986651623291</v>
+        <v>191.7880449663647</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2479,7 @@
         <v>140.4502127128978</v>
       </c>
       <c r="D25" t="n">
-        <v>121.8188646324823</v>
+        <v>33.74514869814639</v>
       </c>
       <c r="E25" t="n">
         <v>119.6373542608391</v>
@@ -2491,10 +2491,10 @@
         <v>138.864744500716</v>
       </c>
       <c r="H25" t="n">
-        <v>85.23999601029993</v>
+        <v>114.7180669432698</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>58.59564500136615</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.87652078606936</v>
+        <v>63.87652078606919</v>
       </c>
       <c r="T26" t="n">
-        <v>173.5646835628561</v>
+        <v>173.564683562856</v>
       </c>
       <c r="U26" t="n">
-        <v>224.1335643143972</v>
+        <v>224.133564314398</v>
       </c>
       <c r="V26" t="n">
         <v>300.9556500844048</v>
@@ -2713,25 +2713,25 @@
         <v>153.0353717962072</v>
       </c>
       <c r="C28" t="n">
-        <v>140.4502127128978</v>
+        <v>140.4502127128977</v>
       </c>
       <c r="D28" t="n">
-        <v>121.8188646324823</v>
+        <v>121.8188646324822</v>
       </c>
       <c r="E28" t="n">
         <v>119.6373542608391</v>
       </c>
       <c r="F28" t="n">
-        <v>118.6244396372012</v>
+        <v>118.6244396372011</v>
       </c>
       <c r="G28" t="n">
         <v>138.864744500716</v>
       </c>
       <c r="H28" t="n">
-        <v>114.7180669432698</v>
+        <v>85.23999601029993</v>
       </c>
       <c r="I28" t="n">
-        <v>58.59564500136615</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.74830544076185</v>
+        <v>45.74830544076183</v>
       </c>
       <c r="S28" t="n">
-        <v>156.6209537708037</v>
+        <v>156.6209537708036</v>
       </c>
       <c r="T28" t="n">
-        <v>103.1214065459799</v>
+        <v>191.1951224803155</v>
       </c>
       <c r="U28" t="n">
         <v>259.3953504359237</v>
@@ -2776,7 +2776,7 @@
         <v>259.7263899508609</v>
       </c>
       <c r="X28" t="n">
-        <v>198.9130470033071</v>
+        <v>198.913047003307</v>
       </c>
       <c r="Y28" t="n">
         <v>191.7880449663647</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>355.9372332777505</v>
+        <v>355.9372332777504</v>
       </c>
       <c r="C29" t="n">
-        <v>338.4762833852775</v>
+        <v>338.4762833852774</v>
       </c>
       <c r="D29" t="n">
-        <v>327.8864332349529</v>
+        <v>327.8864332349528</v>
       </c>
       <c r="E29" t="n">
-        <v>355.1337616865317</v>
+        <v>355.1337616865316</v>
       </c>
       <c r="F29" t="n">
-        <v>380.0794373559814</v>
+        <v>380.0794373559813</v>
       </c>
       <c r="G29" t="n">
-        <v>383.3126265330498</v>
+        <v>383.3126265330496</v>
       </c>
       <c r="H29" t="n">
-        <v>259.4902352651118</v>
+        <v>259.4902352651135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.87652078606942</v>
+        <v>63.87652078606928</v>
       </c>
       <c r="T29" t="n">
-        <v>173.5646835628561</v>
+        <v>173.564683562856</v>
       </c>
       <c r="U29" t="n">
-        <v>224.1335643143981</v>
+        <v>224.1335643143976</v>
       </c>
       <c r="V29" t="n">
-        <v>300.9556500844049</v>
+        <v>300.9556500844047</v>
       </c>
       <c r="W29" t="n">
-        <v>322.444360331683</v>
+        <v>322.4443603316828</v>
       </c>
       <c r="X29" t="n">
-        <v>342.934492292739</v>
+        <v>342.9344922927389</v>
       </c>
       <c r="Y29" t="n">
-        <v>359.4413302703235</v>
+        <v>359.4413302703234</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.96165586186974</v>
+        <v>153.0353717962071</v>
       </c>
       <c r="C31" t="n">
-        <v>140.4502127128978</v>
+        <v>140.4502127128977</v>
       </c>
       <c r="D31" t="n">
-        <v>121.8188646324823</v>
+        <v>121.8188646324822</v>
       </c>
       <c r="E31" t="n">
-        <v>119.6373542608391</v>
+        <v>31.56363832650436</v>
       </c>
       <c r="F31" t="n">
-        <v>118.6244396372012</v>
+        <v>118.6244396372011</v>
       </c>
       <c r="G31" t="n">
-        <v>138.8647445007161</v>
+        <v>138.8647445007159</v>
       </c>
       <c r="H31" t="n">
-        <v>114.7180669432699</v>
+        <v>114.7180669432697</v>
       </c>
       <c r="I31" t="n">
-        <v>58.59564500136621</v>
+        <v>58.59564500136607</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.74830544076191</v>
+        <v>45.74830544076177</v>
       </c>
       <c r="S31" t="n">
-        <v>156.6209537708037</v>
+        <v>156.6209537708036</v>
       </c>
       <c r="T31" t="n">
-        <v>191.1951224803156</v>
+        <v>191.1951224803155</v>
       </c>
       <c r="U31" t="n">
-        <v>259.3953504359238</v>
+        <v>259.3953504359237</v>
       </c>
       <c r="V31" t="n">
-        <v>225.341034938098</v>
+        <v>225.3410349380978</v>
       </c>
       <c r="W31" t="n">
-        <v>259.7263899508609</v>
+        <v>259.7263899508608</v>
       </c>
       <c r="X31" t="n">
-        <v>198.9130470033071</v>
+        <v>198.913047003307</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.7880449663648</v>
+        <v>191.7880449663646</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>140.4502127128978</v>
       </c>
       <c r="D34" t="n">
-        <v>121.8188646324823</v>
+        <v>33.74514869814639</v>
       </c>
       <c r="E34" t="n">
         <v>119.6373542608391</v>
@@ -3235,7 +3235,7 @@
         <v>45.74830544076185</v>
       </c>
       <c r="S34" t="n">
-        <v>68.54723783646712</v>
+        <v>156.6209537708037</v>
       </c>
       <c r="T34" t="n">
         <v>191.1951224803156</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>355.9372332777504</v>
+        <v>355.9372332777506</v>
       </c>
       <c r="C35" t="n">
-        <v>338.4762833852774</v>
+        <v>338.4762833852776</v>
       </c>
       <c r="D35" t="n">
-        <v>327.8864332349528</v>
+        <v>327.886433234953</v>
       </c>
       <c r="E35" t="n">
-        <v>355.1337616865316</v>
+        <v>355.1337616865318</v>
       </c>
       <c r="F35" t="n">
-        <v>380.0794373559813</v>
+        <v>380.0794373559814</v>
       </c>
       <c r="G35" t="n">
-        <v>383.3126265330496</v>
+        <v>383.3126265330498</v>
       </c>
       <c r="H35" t="n">
-        <v>259.4902352651135</v>
+        <v>259.4902352651137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.8765207860693</v>
+        <v>63.87652078606943</v>
       </c>
       <c r="T35" t="n">
-        <v>173.564683562856</v>
+        <v>173.5646835628561</v>
       </c>
       <c r="U35" t="n">
-        <v>224.1335643143979</v>
+        <v>224.1335643143981</v>
       </c>
       <c r="V35" t="n">
-        <v>300.9556500844047</v>
+        <v>300.9556500844049</v>
       </c>
       <c r="W35" t="n">
-        <v>322.4443603316828</v>
+        <v>322.444360331683</v>
       </c>
       <c r="X35" t="n">
-        <v>342.9344922927389</v>
+        <v>342.934492292739</v>
       </c>
       <c r="Y35" t="n">
-        <v>359.4413302703234</v>
+        <v>359.4413302703236</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.0353717962072</v>
+        <v>153.0353717962073</v>
       </c>
       <c r="C37" t="n">
-        <v>140.4502127128977</v>
+        <v>52.37649677855944</v>
       </c>
       <c r="D37" t="n">
-        <v>121.8188646324822</v>
+        <v>121.8188646324823</v>
       </c>
       <c r="E37" t="n">
-        <v>119.637354260839</v>
+        <v>119.6373542608391</v>
       </c>
       <c r="F37" t="n">
-        <v>118.6244396372011</v>
+        <v>118.6244396372012</v>
       </c>
       <c r="G37" t="n">
-        <v>138.864744500716</v>
+        <v>138.8647445007161</v>
       </c>
       <c r="H37" t="n">
-        <v>114.7180669432697</v>
+        <v>114.7180669432699</v>
       </c>
       <c r="I37" t="n">
-        <v>58.59564500136609</v>
+        <v>58.59564500136621</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.74830544076179</v>
+        <v>45.74830544076192</v>
       </c>
       <c r="S37" t="n">
-        <v>68.54723783646827</v>
+        <v>156.6209537708037</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1951224803155</v>
+        <v>191.1951224803156</v>
       </c>
       <c r="U37" t="n">
-        <v>259.3953504359237</v>
+        <v>259.3953504359238</v>
       </c>
       <c r="V37" t="n">
-        <v>225.3410349380979</v>
+        <v>225.341034938098</v>
       </c>
       <c r="W37" t="n">
-        <v>259.7263899508608</v>
+        <v>259.726389950861</v>
       </c>
       <c r="X37" t="n">
-        <v>198.913047003307</v>
+        <v>198.9130470033071</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.7880449663647</v>
+        <v>191.7880449663648</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>355.9372332777505</v>
+        <v>355.9372332777506</v>
       </c>
       <c r="C38" t="n">
-        <v>338.4762833852774</v>
+        <v>338.4762833852776</v>
       </c>
       <c r="D38" t="n">
-        <v>327.8864332349528</v>
+        <v>327.886433234953</v>
       </c>
       <c r="E38" t="n">
-        <v>355.1337616865317</v>
+        <v>355.1337616865318</v>
       </c>
       <c r="F38" t="n">
-        <v>380.0794373559813</v>
+        <v>380.0794373559814</v>
       </c>
       <c r="G38" t="n">
-        <v>383.3126265330497</v>
+        <v>383.3126265330498</v>
       </c>
       <c r="H38" t="n">
-        <v>259.4902352651136</v>
+        <v>259.4902352651137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.87652078606934</v>
+        <v>63.87652078606945</v>
       </c>
       <c r="T38" t="n">
-        <v>173.564683562856</v>
+        <v>173.5646835628561</v>
       </c>
       <c r="U38" t="n">
-        <v>224.133564314398</v>
+        <v>224.1335643143981</v>
       </c>
       <c r="V38" t="n">
-        <v>300.9556500844048</v>
+        <v>300.9556500844049</v>
       </c>
       <c r="W38" t="n">
-        <v>322.4443603316829</v>
+        <v>322.444360331683</v>
       </c>
       <c r="X38" t="n">
-        <v>342.9344922927389</v>
+        <v>342.934492292739</v>
       </c>
       <c r="Y38" t="n">
-        <v>359.4413302703235</v>
+        <v>359.4413302703236</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.0353717962072</v>
+        <v>153.0353717962073</v>
       </c>
       <c r="C40" t="n">
-        <v>140.4502127128977</v>
+        <v>140.4502127128978</v>
       </c>
       <c r="D40" t="n">
-        <v>121.8188646324822</v>
+        <v>121.8188646324824</v>
       </c>
       <c r="E40" t="n">
-        <v>119.6373542608391</v>
+        <v>119.6373542608392</v>
       </c>
       <c r="F40" t="n">
-        <v>30.55072370286629</v>
+        <v>76.29902914362518</v>
       </c>
       <c r="G40" t="n">
-        <v>138.864744500716</v>
+        <v>138.8647445007161</v>
       </c>
       <c r="H40" t="n">
-        <v>114.7180669432698</v>
+        <v>114.7180669432699</v>
       </c>
       <c r="I40" t="n">
-        <v>58.59564500136612</v>
+        <v>58.59564500136624</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.74830544076183</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.6209537708036</v>
+        <v>156.6209537708037</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1951224803155</v>
+        <v>191.1951224803157</v>
       </c>
       <c r="U40" t="n">
-        <v>259.3953504359237</v>
+        <v>259.3953504359238</v>
       </c>
       <c r="V40" t="n">
-        <v>225.3410349380979</v>
+        <v>225.341034938098</v>
       </c>
       <c r="W40" t="n">
-        <v>259.7263899508609</v>
+        <v>259.726389950861</v>
       </c>
       <c r="X40" t="n">
-        <v>198.913047003307</v>
+        <v>198.9130470033072</v>
       </c>
       <c r="Y40" t="n">
-        <v>191.7880449663647</v>
+        <v>191.7880449663648</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>355.9372332777504</v>
+        <v>355.9372332777505</v>
       </c>
       <c r="C41" t="n">
-        <v>338.4762833852774</v>
+        <v>338.4762833852775</v>
       </c>
       <c r="D41" t="n">
         <v>327.8864332349528</v>
       </c>
       <c r="E41" t="n">
-        <v>355.1337616865316</v>
+        <v>355.1337616865317</v>
       </c>
       <c r="F41" t="n">
         <v>380.0794373559813</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3126265330496</v>
+        <v>383.3126265330498</v>
       </c>
       <c r="H41" t="n">
-        <v>259.4902352651135</v>
+        <v>259.4902352651136</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.8765207860693</v>
+        <v>63.87652078606936</v>
       </c>
       <c r="T41" t="n">
-        <v>173.564683562856</v>
+        <v>173.5646835628561</v>
       </c>
       <c r="U41" t="n">
-        <v>224.1335643143979</v>
+        <v>224.133564314398</v>
       </c>
       <c r="V41" t="n">
-        <v>300.9556500844047</v>
+        <v>300.9556500844049</v>
       </c>
       <c r="W41" t="n">
-        <v>322.4443603316828</v>
+        <v>322.4443603316829</v>
       </c>
       <c r="X41" t="n">
         <v>342.9344922927389</v>
       </c>
       <c r="Y41" t="n">
-        <v>359.4413302703234</v>
+        <v>359.4413302703235</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>153.0353717962072</v>
       </c>
       <c r="C43" t="n">
-        <v>140.4502127128977</v>
+        <v>140.4502127128978</v>
       </c>
       <c r="D43" t="n">
-        <v>121.8188646324822</v>
+        <v>33.74514869814583</v>
       </c>
       <c r="E43" t="n">
-        <v>119.637354260839</v>
+        <v>119.6373542608391</v>
       </c>
       <c r="F43" t="n">
-        <v>89.14636870423203</v>
+        <v>118.6244396372012</v>
       </c>
       <c r="G43" t="n">
         <v>138.864744500716</v>
       </c>
       <c r="H43" t="n">
-        <v>114.7180669432697</v>
+        <v>114.7180669432698</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>58.59564500136615</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>45.74830544076179</v>
+        <v>45.74830544076185</v>
       </c>
       <c r="S43" t="n">
-        <v>156.6209537708036</v>
+        <v>156.6209537708037</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1951224803155</v>
+        <v>191.1951224803156</v>
       </c>
       <c r="U43" t="n">
-        <v>259.3953504359237</v>
+        <v>259.3953504359238</v>
       </c>
       <c r="V43" t="n">
         <v>225.3410349380979</v>
       </c>
       <c r="W43" t="n">
-        <v>259.7263899508608</v>
+        <v>259.7263899508609</v>
       </c>
       <c r="X43" t="n">
-        <v>198.913047003307</v>
+        <v>198.9130470033071</v>
       </c>
       <c r="Y43" t="n">
         <v>191.7880449663647</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>355.9372332777504</v>
+        <v>355.9372332777506</v>
       </c>
       <c r="C44" t="n">
-        <v>338.4762833852774</v>
+        <v>338.4762833852776</v>
       </c>
       <c r="D44" t="n">
-        <v>327.8864332349528</v>
+        <v>327.886433234953</v>
       </c>
       <c r="E44" t="n">
-        <v>355.1337616865316</v>
+        <v>355.1337616865318</v>
       </c>
       <c r="F44" t="n">
-        <v>380.0794373559813</v>
+        <v>380.0794373559814</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3126265330496</v>
+        <v>383.3126265330498</v>
       </c>
       <c r="H44" t="n">
-        <v>259.4902352651135</v>
+        <v>259.4902352651137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.87652078606929</v>
+        <v>63.87652078606943</v>
       </c>
       <c r="T44" t="n">
-        <v>173.564683562856</v>
+        <v>173.5646835628561</v>
       </c>
       <c r="U44" t="n">
-        <v>224.1335643143979</v>
+        <v>224.1335643143981</v>
       </c>
       <c r="V44" t="n">
-        <v>300.9556500844047</v>
+        <v>300.9556500844049</v>
       </c>
       <c r="W44" t="n">
-        <v>322.4443603316828</v>
+        <v>322.444360331683</v>
       </c>
       <c r="X44" t="n">
-        <v>342.9344922927389</v>
+        <v>342.934492292739</v>
       </c>
       <c r="Y44" t="n">
-        <v>359.4413302703234</v>
+        <v>359.4413302703236</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.0353717962072</v>
+        <v>153.0353717962073</v>
       </c>
       <c r="C46" t="n">
-        <v>140.4502127128977</v>
+        <v>140.4502127128978</v>
       </c>
       <c r="D46" t="n">
-        <v>121.8188646324822</v>
+        <v>121.8188646324823</v>
       </c>
       <c r="E46" t="n">
-        <v>119.637354260839</v>
+        <v>119.6373542608391</v>
       </c>
       <c r="F46" t="n">
-        <v>118.6244396372011</v>
+        <v>30.55072370286313</v>
       </c>
       <c r="G46" t="n">
-        <v>138.864744500716</v>
+        <v>138.8647445007161</v>
       </c>
       <c r="H46" t="n">
-        <v>114.7180669432697</v>
+        <v>114.7180669432699</v>
       </c>
       <c r="I46" t="n">
-        <v>58.59564500136608</v>
+        <v>58.59564500136621</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>45.74830544076178</v>
+        <v>45.74830544076192</v>
       </c>
       <c r="S46" t="n">
-        <v>68.54723783646884</v>
+        <v>156.6209537708037</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1951224803155</v>
+        <v>191.1951224803156</v>
       </c>
       <c r="U46" t="n">
-        <v>259.3953504359237</v>
+        <v>259.3953504359238</v>
       </c>
       <c r="V46" t="n">
-        <v>225.3410349380979</v>
+        <v>225.341034938098</v>
       </c>
       <c r="W46" t="n">
-        <v>259.7263899508608</v>
+        <v>259.726389950861</v>
       </c>
       <c r="X46" t="n">
-        <v>198.913047003307</v>
+        <v>198.9130470033071</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.7880449663647</v>
+        <v>191.7880449663648</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.14031563513723</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="C2" t="n">
-        <v>22.14031563513723</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="D2" t="n">
-        <v>22.14031563513723</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="E2" t="n">
-        <v>22.14031563513723</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="F2" t="n">
         <v>15.19481488593376</v>
@@ -4328,19 +4328,19 @@
         <v>1.115112434178978</v>
       </c>
       <c r="J2" t="n">
-        <v>1.115112434178978</v>
+        <v>14.91462880714384</v>
       </c>
       <c r="K2" t="n">
-        <v>14.91462880714384</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="L2" t="n">
-        <v>28.1565889630192</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="M2" t="n">
-        <v>41.95610533598406</v>
+        <v>37.75358557815623</v>
       </c>
       <c r="N2" t="n">
-        <v>55.75562170894892</v>
+        <v>51.55310195112109</v>
       </c>
       <c r="O2" t="n">
         <v>55.75562170894892</v>
@@ -4355,10 +4355,10 @@
         <v>55.75562170894892</v>
       </c>
       <c r="S2" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719415</v>
       </c>
       <c r="T2" t="n">
-        <v>41.67591925719415</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="U2" t="n">
         <v>27.59621680543937</v>
@@ -4367,13 +4367,13 @@
         <v>27.59621680543937</v>
       </c>
       <c r="W2" t="n">
-        <v>22.14031563513723</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="X2" t="n">
-        <v>22.14031563513723</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.14031563513723</v>
+        <v>27.59621680543937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="C3" t="n">
-        <v>29.27451733768854</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="D3" t="n">
-        <v>29.27451733768854</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="E3" t="n">
-        <v>15.19481488593376</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="F3" t="n">
-        <v>15.19481488593376</v>
+        <v>13.51651435368459</v>
       </c>
       <c r="G3" t="n">
-        <v>15.19481488593376</v>
+        <v>13.51651435368459</v>
       </c>
       <c r="H3" t="n">
-        <v>15.19481488593376</v>
+        <v>13.51651435368459</v>
       </c>
       <c r="I3" t="n">
         <v>1.115112434178978</v>
@@ -4416,7 +4416,7 @@
         <v>14.91462880714384</v>
       </c>
       <c r="M3" t="n">
-        <v>28.71414518010869</v>
+        <v>22.84122271046065</v>
       </c>
       <c r="N3" t="n">
         <v>36.64073908342551</v>
@@ -4431,28 +4431,28 @@
         <v>55.75562170894892</v>
       </c>
       <c r="R3" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719415</v>
       </c>
       <c r="S3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="T3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="U3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="V3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="W3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="X3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.35421978944331</v>
+        <v>27.59621680543937</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>41.67591925719415</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41.67591925719415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.67591925719415</v>
+      </c>
+      <c r="E4" t="n">
+        <v>41.67591925719415</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41.67591925719415</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.67591925719415</v>
+      </c>
+      <c r="H4" t="n">
         <v>27.59621680543937</v>
       </c>
-      <c r="C4" t="n">
+      <c r="I4" t="n">
         <v>15.19481488593376</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.19481488593376</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15.19481488593376</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15.19481488593376</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15.19481488593376</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.115112434178978</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.115112434178978</v>
       </c>
       <c r="J4" t="n">
         <v>1.115112434178978</v>
@@ -4495,25 +4495,25 @@
         <v>28.71414518010869</v>
       </c>
       <c r="M4" t="n">
-        <v>28.71414518010869</v>
+        <v>42.51366155307355</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71414518010869</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="O4" t="n">
-        <v>41.95610533598406</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="P4" t="n">
         <v>55.75562170894892</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719415</v>
       </c>
       <c r="R4" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719415</v>
       </c>
       <c r="S4" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719415</v>
       </c>
       <c r="T4" t="n">
         <v>41.67591925719415</v>
@@ -4528,10 +4528,10 @@
         <v>41.67591925719415</v>
       </c>
       <c r="X4" t="n">
-        <v>27.59621680543937</v>
+        <v>41.67591925719415</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.59621680543937</v>
+        <v>41.67591925719415</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>55.75562170894892</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55.75562170894892</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.75562170894892</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55.75562170894892</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41.67591925719414</v>
+      </c>
+      <c r="G5" t="n">
         <v>27.59621680543936</v>
       </c>
-      <c r="C5" t="n">
-        <v>27.59621680543936</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.59621680543936</v>
-      </c>
-      <c r="E5" t="n">
-        <v>27.59621680543936</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20.65071605623589</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.571013604481113</v>
-      </c>
       <c r="H5" t="n">
-        <v>6.571013604481113</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="I5" t="n">
         <v>1.115112434178978</v>
@@ -4568,22 +4568,22 @@
         <v>1.115112434178978</v>
       </c>
       <c r="K5" t="n">
-        <v>1.115112434178978</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="L5" t="n">
-        <v>1.115112434178978</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="M5" t="n">
-        <v>10.15455283222651</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="N5" t="n">
-        <v>23.95406920519136</v>
+        <v>42.51366155307353</v>
       </c>
       <c r="O5" t="n">
-        <v>37.75358557815621</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="P5" t="n">
-        <v>51.55310195112106</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Q5" t="n">
         <v>55.75562170894892</v>
@@ -4595,22 +4595,22 @@
         <v>55.75562170894892</v>
       </c>
       <c r="T5" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="U5" t="n">
-        <v>27.59621680543936</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="V5" t="n">
-        <v>27.59621680543936</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="W5" t="n">
-        <v>27.59621680543936</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="X5" t="n">
-        <v>27.59621680543936</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.59621680543936</v>
+        <v>55.75562170894892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="C6" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="D6" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="E6" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="F6" t="n">
-        <v>15.19481488593376</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="G6" t="n">
-        <v>15.19481488593376</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="H6" t="n">
         <v>15.19481488593376</v>
@@ -4656,7 +4656,7 @@
         <v>28.71414518010869</v>
       </c>
       <c r="N6" t="n">
-        <v>42.51366155307355</v>
+        <v>36.6407390834255</v>
       </c>
       <c r="O6" t="n">
         <v>50.44025545639036</v>
@@ -4668,28 +4668,28 @@
         <v>55.75562170894892</v>
       </c>
       <c r="R6" t="n">
-        <v>43.35421978944331</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="S6" t="n">
-        <v>43.35421978944331</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="T6" t="n">
-        <v>43.35421978944331</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="U6" t="n">
-        <v>29.27451733768853</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="V6" t="n">
-        <v>29.27451733768853</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="W6" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="X6" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894892</v>
       </c>
     </row>
     <row r="7">
@@ -4702,25 +4702,25 @@
         <v>29.27451733768853</v>
       </c>
       <c r="C7" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="D7" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="E7" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="F7" t="n">
         <v>15.19481488593376</v>
       </c>
       <c r="G7" t="n">
-        <v>1.115112434178978</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="H7" t="n">
-        <v>1.115112434178978</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="I7" t="n">
-        <v>1.115112434178978</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="J7" t="n">
         <v>1.115112434178978</v>
@@ -4729,7 +4729,7 @@
         <v>1.115112434178978</v>
       </c>
       <c r="L7" t="n">
-        <v>14.91462880714383</v>
+        <v>14.35707259005435</v>
       </c>
       <c r="M7" t="n">
         <v>28.15658896301921</v>
@@ -4744,16 +4744,16 @@
         <v>55.75562170894892</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="S7" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="T7" t="n">
-        <v>43.35421978944331</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="U7" t="n">
         <v>29.27451733768853</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="C8" t="n">
-        <v>255.9286798161014</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="D8" t="n">
-        <v>142.6835685788048</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="E8" t="n">
-        <v>142.6835685788048</v>
+        <v>192.0243253124955</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7380678296014</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G8" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="I8" t="n">
         <v>8.969012809993888</v>
@@ -4826,28 +4826,28 @@
         <v>448.4506404996944</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996944</v>
+        <v>418.5145477870886</v>
       </c>
       <c r="S8" t="n">
-        <v>335.2055292623978</v>
+        <v>418.5145477870886</v>
       </c>
       <c r="T8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="U8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="V8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="W8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="X8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.2055292623978</v>
+        <v>305.2694365497921</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.0170613811698</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="C9" t="n">
-        <v>71.77195014387318</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="D9" t="n">
-        <v>71.77195014387318</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="E9" t="n">
-        <v>71.77195014387318</v>
+        <v>393.5217914144829</v>
       </c>
       <c r="F9" t="n">
-        <v>71.77195014387318</v>
+        <v>280.2766801771864</v>
       </c>
       <c r="G9" t="n">
-        <v>71.77195014387318</v>
+        <v>167.0315689398898</v>
       </c>
       <c r="H9" t="n">
         <v>63.65296969337254</v>
@@ -4893,10 +4893,10 @@
         <v>230.1803012028976</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265719</v>
+        <v>287.4309731640692</v>
       </c>
       <c r="O9" t="n">
-        <v>441.2239361578219</v>
+        <v>387.4830745953192</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996944</v>
@@ -4905,28 +4905,28 @@
         <v>448.4506404996944</v>
       </c>
       <c r="R9" t="n">
-        <v>411.5072838557629</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="S9" t="n">
-        <v>411.5072838557629</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="T9" t="n">
-        <v>298.2621726184663</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="U9" t="n">
-        <v>185.0170613811698</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="V9" t="n">
-        <v>185.0170613811698</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="W9" t="n">
-        <v>185.0170613811698</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="X9" t="n">
-        <v>185.0170613811698</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.0170613811698</v>
+        <v>448.4506404996944</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.692553013791</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="C10" t="n">
-        <v>268.4474417764944</v>
+        <v>348.7043465218836</v>
       </c>
       <c r="D10" t="n">
-        <v>155.2023305391979</v>
+        <v>235.459235284587</v>
       </c>
       <c r="E10" t="n">
-        <v>155.2023305391979</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="G10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="H10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="I10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="J10" t="n">
         <v>8.969012809993888</v>
@@ -4966,16 +4966,16 @@
         <v>85.6748668419385</v>
       </c>
       <c r="L10" t="n">
-        <v>122.6981381460825</v>
+        <v>196.6664003656128</v>
       </c>
       <c r="M10" t="n">
-        <v>233.6896716697568</v>
+        <v>307.6579338892872</v>
       </c>
       <c r="N10" t="n">
-        <v>237.3516691331948</v>
+        <v>418.6494674129616</v>
       </c>
       <c r="O10" t="n">
-        <v>348.3432026568692</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="P10" t="n">
         <v>448.4506404996944</v>
@@ -5002,10 +5002,10 @@
         <v>448.4506404996944</v>
       </c>
       <c r="X10" t="n">
-        <v>381.692553013791</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.692553013791</v>
+        <v>448.4506404996944</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2051.278283189674</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C11" t="n">
-        <v>1682.315766249263</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>1167.119645043337</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389512</v>
+        <v>756.1337402537299</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>341.0612900987263</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927149</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189674</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y11" t="n">
-        <v>2051.278283189674</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="12">
@@ -5109,28 +5109,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.020896318616</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0847133907091</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D13" t="n">
-        <v>457.9680739783734</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764913</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760401</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5230,19 +5230,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672847</v>
+        <v>1435.39694362256</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.09371846696</v>
+        <v>1180.712455416673</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.676548429999</v>
+        <v>891.2952853797119</v>
       </c>
       <c r="X13" t="n">
-        <v>958.6693611488557</v>
+        <v>663.3057344816945</v>
       </c>
       <c r="Y13" t="n">
-        <v>958.6693611488557</v>
+        <v>663.3057344816945</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2012.841631775865</v>
+        <v>2234.969761910841</v>
       </c>
       <c r="C14" t="n">
-        <v>1957.746529829399</v>
+        <v>1866.007244970429</v>
       </c>
       <c r="D14" t="n">
-        <v>1599.480831222648</v>
+        <v>1507.741546363679</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.692578624404</v>
+        <v>1121.953293765434</v>
       </c>
       <c r="F14" t="n">
-        <v>802.7066738347966</v>
+        <v>710.9673889758269</v>
       </c>
       <c r="G14" t="n">
-        <v>388.3538151010707</v>
+        <v>296.614530242101</v>
       </c>
       <c r="H14" t="n">
-        <v>98.13973035299716</v>
+        <v>83.8848798612713</v>
       </c>
       <c r="I14" t="n">
-        <v>83.88487986127133</v>
+        <v>83.8848798612713</v>
       </c>
       <c r="J14" t="n">
-        <v>332.6230522063638</v>
+        <v>332.6230522063636</v>
       </c>
       <c r="K14" t="n">
-        <v>756.1556120781911</v>
+        <v>756.1556120781908</v>
       </c>
       <c r="L14" t="n">
-        <v>1318.486965767923</v>
+        <v>1318.486965767922</v>
       </c>
       <c r="M14" t="n">
-        <v>1975.858383843948</v>
+        <v>1975.858383843946</v>
       </c>
       <c r="N14" t="n">
-        <v>2648.480567103933</v>
+        <v>2648.480567103931</v>
       </c>
       <c r="O14" t="n">
-        <v>3270.283360189331</v>
+        <v>3270.28336018933</v>
       </c>
       <c r="P14" t="n">
         <v>3766.476657312713</v>
       </c>
       <c r="Q14" t="n">
-        <v>4090.924412378808</v>
+        <v>4090.924412378807</v>
       </c>
       <c r="R14" t="n">
-        <v>4194.243993063566</v>
+        <v>4194.243993063565</v>
       </c>
       <c r="S14" t="n">
-        <v>4100.351014103026</v>
+        <v>4194.243993063565</v>
       </c>
       <c r="T14" t="n">
-        <v>4100.351014103026</v>
+        <v>3991.416256894429</v>
       </c>
       <c r="U14" t="n">
-        <v>3846.878104690564</v>
+        <v>3737.943347481968</v>
       </c>
       <c r="V14" t="n">
-        <v>3515.815217346993</v>
+        <v>3737.943347481968</v>
       </c>
       <c r="W14" t="n">
-        <v>3163.046562076879</v>
+        <v>3385.174692211854</v>
       </c>
       <c r="X14" t="n">
-        <v>2789.580803815799</v>
+        <v>3011.708933950774</v>
       </c>
       <c r="Y14" t="n">
-        <v>2399.441471839987</v>
+        <v>2621.569601974963</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.4196169967499</v>
       </c>
       <c r="H15" t="n">
-        <v>89.63616038958214</v>
+        <v>89.63616038958213</v>
       </c>
       <c r="I15" t="n">
-        <v>83.88487986127133</v>
+        <v>83.8848798612713</v>
       </c>
       <c r="J15" t="n">
-        <v>213.2137843259437</v>
+        <v>83.8848798612713</v>
       </c>
       <c r="K15" t="n">
-        <v>512.4123059858221</v>
+        <v>383.0834015211496</v>
       </c>
       <c r="L15" t="n">
-        <v>961.0441829035935</v>
+        <v>831.7152784389209</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.933290840322</v>
+        <v>1374.604386375649</v>
       </c>
       <c r="N15" t="n">
-        <v>2075.599702962925</v>
+        <v>1946.270798498252</v>
       </c>
       <c r="O15" t="n">
-        <v>2150.348676136229</v>
+        <v>2447.014086292777</v>
       </c>
       <c r="P15" t="n">
-        <v>2532.906244656127</v>
+        <v>2556.193785036121</v>
       </c>
       <c r="Q15" t="n">
-        <v>2532.906244656127</v>
+        <v>2556.193785036121</v>
       </c>
       <c r="R15" t="n">
         <v>2556.193785036121</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>544.7289160866929</v>
+        <v>550.8507957839071</v>
       </c>
       <c r="C16" t="n">
-        <v>544.7289160866929</v>
+        <v>381.9146128560002</v>
       </c>
       <c r="D16" t="n">
-        <v>394.6122766743572</v>
+        <v>231.7979734436644</v>
       </c>
       <c r="E16" t="n">
-        <v>394.6122766743572</v>
+        <v>83.8848798612713</v>
       </c>
       <c r="F16" t="n">
-        <v>394.6122766743572</v>
+        <v>83.88487986127129</v>
       </c>
       <c r="G16" t="n">
-        <v>227.232223987842</v>
+        <v>83.88487986127129</v>
       </c>
       <c r="H16" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127129</v>
       </c>
       <c r="I16" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127129</v>
       </c>
       <c r="J16" t="n">
-        <v>151.3742023719754</v>
+        <v>151.3742023719753</v>
       </c>
       <c r="K16" t="n">
-        <v>392.1167278713161</v>
+        <v>392.1167278713162</v>
       </c>
       <c r="L16" t="n">
-        <v>755.7107103628714</v>
+        <v>755.7107103628713</v>
       </c>
       <c r="M16" t="n">
         <v>1149.458708356603</v>
@@ -5458,28 +5458,28 @@
         <v>2258.295645252177</v>
       </c>
       <c r="R16" t="n">
-        <v>2182.978727656389</v>
+        <v>2182.978727656388</v>
       </c>
       <c r="S16" t="n">
-        <v>1996.918087216069</v>
+        <v>1996.918087216068</v>
       </c>
       <c r="T16" t="n">
-        <v>1996.918087216069</v>
+        <v>1776.530639523957</v>
       </c>
       <c r="U16" t="n">
-        <v>1707.832826738372</v>
+        <v>1725.383048898542</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.148338532485</v>
+        <v>1470.698560692655</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.731168495525</v>
+        <v>1181.281390655694</v>
       </c>
       <c r="X16" t="n">
-        <v>935.7416175975073</v>
+        <v>953.2918397576769</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.9490384539772</v>
+        <v>732.4992606141468</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2150.050509091842</v>
       </c>
       <c r="C17" t="n">
-        <v>1808.155273349137</v>
+        <v>1808.155273349138</v>
       </c>
       <c r="D17" t="n">
         <v>1476.956855940094</v>
@@ -5501,16 +5501,16 @@
         <v>1118.235884539557</v>
       </c>
       <c r="F17" t="n">
-        <v>734.3172609476562</v>
+        <v>734.3172609476565</v>
       </c>
       <c r="G17" t="n">
-        <v>347.0316834116376</v>
+        <v>347.0316834116377</v>
       </c>
       <c r="H17" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="I17" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="J17" t="n">
         <v>332.6230522063643</v>
@@ -5528,37 +5528,37 @@
         <v>2648.480567103933</v>
       </c>
       <c r="O17" t="n">
-        <v>3270.283360189332</v>
+        <v>3270.283360189331</v>
       </c>
       <c r="P17" t="n">
-        <v>3766.476657312714</v>
+        <v>3766.476657312713</v>
       </c>
       <c r="Q17" t="n">
-        <v>4090.924412378809</v>
+        <v>4090.924412378808</v>
       </c>
       <c r="R17" t="n">
         <v>4194.243993063566</v>
       </c>
       <c r="S17" t="n">
-        <v>4127.418295300733</v>
+        <v>4127.418295300731</v>
       </c>
       <c r="T17" t="n">
-        <v>3951.657840329305</v>
+        <v>3951.657840329303</v>
       </c>
       <c r="U17" t="n">
-        <v>3725.25221211455</v>
+        <v>3725.252212114549</v>
       </c>
       <c r="V17" t="n">
-        <v>3421.256605968687</v>
+        <v>3544.754969872141</v>
       </c>
       <c r="W17" t="n">
         <v>3219.053595799734</v>
       </c>
       <c r="X17" t="n">
-        <v>2872.655118736361</v>
+        <v>2872.655118736362</v>
       </c>
       <c r="Y17" t="n">
-        <v>2509.583067958256</v>
+        <v>2509.583067958257</v>
       </c>
     </row>
     <row r="18">
@@ -5580,7 +5580,7 @@
         <v>458.9322597838717</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3977018107566</v>
+        <v>312.3977018107567</v>
       </c>
       <c r="G18" t="n">
         <v>176.4196169967499</v>
@@ -5589,31 +5589,31 @@
         <v>89.63616038958214</v>
       </c>
       <c r="I18" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="J18" t="n">
-        <v>213.2137843259437</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="K18" t="n">
-        <v>512.4123059858221</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="L18" t="n">
-        <v>961.0441829035935</v>
+        <v>352.5270016454999</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.933290840322</v>
+        <v>895.416109582228</v>
       </c>
       <c r="N18" t="n">
-        <v>2075.599702962925</v>
+        <v>1467.082521704831</v>
       </c>
       <c r="O18" t="n">
-        <v>2150.348676136229</v>
+        <v>1967.825809499356</v>
       </c>
       <c r="P18" t="n">
-        <v>2532.906244656127</v>
+        <v>2350.383378019255</v>
       </c>
       <c r="Q18" t="n">
-        <v>2532.906244656127</v>
+        <v>2556.193785036121</v>
       </c>
       <c r="R18" t="n">
         <v>2556.193785036121</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.7477951259726</v>
+        <v>768.7477951259715</v>
       </c>
       <c r="C19" t="n">
-        <v>704.1955511784606</v>
+        <v>626.8788933957717</v>
       </c>
       <c r="D19" t="n">
-        <v>581.146192963832</v>
+        <v>503.8295351811431</v>
       </c>
       <c r="E19" t="n">
-        <v>460.3003805791461</v>
+        <v>382.9837227964571</v>
       </c>
       <c r="F19" t="n">
-        <v>340.4777142789429</v>
+        <v>263.1610564962539</v>
       </c>
       <c r="G19" t="n">
-        <v>200.1649427901348</v>
+        <v>200.1649427901349</v>
       </c>
       <c r="H19" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="I19" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="J19" t="n">
         <v>177.9028446738483</v>
@@ -5677,46 +5677,46 @@
         <v>445.1740124750618</v>
       </c>
       <c r="L19" t="n">
-        <v>835.2966372684898</v>
+        <v>835.2966372684896</v>
       </c>
       <c r="M19" t="n">
         <v>1255.573277564094</v>
       </c>
       <c r="N19" t="n">
-        <v>1671.92208695931</v>
+        <v>1671.922086959309</v>
       </c>
       <c r="O19" t="n">
         <v>2042.496452279766</v>
       </c>
       <c r="P19" t="n">
-        <v>2339.89496413043</v>
+        <v>2339.894964130429</v>
       </c>
       <c r="Q19" t="n">
-        <v>2470.524783667159</v>
+        <v>2470.524783667158</v>
       </c>
       <c r="R19" t="n">
-        <v>2422.275147269078</v>
+        <v>2422.275147269077</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.281788026465</v>
+        <v>2263.281788026464</v>
       </c>
       <c r="T19" t="n">
-        <v>2069.961621532061</v>
+        <v>2069.96162153206</v>
       </c>
       <c r="U19" t="n">
         <v>1807.943642252071</v>
       </c>
       <c r="V19" t="n">
-        <v>1580.326435243892</v>
+        <v>1580.326435243891</v>
       </c>
       <c r="W19" t="n">
-        <v>1317.976546404638</v>
+        <v>1317.976546404637</v>
       </c>
       <c r="X19" t="n">
-        <v>1117.054276704328</v>
+        <v>1117.054276704327</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.3289787585052</v>
+        <v>923.328978758504</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>347.0316834116376</v>
       </c>
       <c r="H20" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="I20" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="J20" t="n">
-        <v>332.6230522063638</v>
+        <v>332.6230522063637</v>
       </c>
       <c r="K20" t="n">
-        <v>756.1556120781911</v>
+        <v>756.155612078191</v>
       </c>
       <c r="L20" t="n">
-        <v>1318.486965767923</v>
+        <v>1318.486965767924</v>
       </c>
       <c r="M20" t="n">
         <v>1975.858383843947</v>
@@ -5765,37 +5765,37 @@
         <v>2648.480567103933</v>
       </c>
       <c r="O20" t="n">
-        <v>3270.28336018933</v>
+        <v>3270.283360189331</v>
       </c>
       <c r="P20" t="n">
-        <v>3766.476657312714</v>
+        <v>3766.476657312713</v>
       </c>
       <c r="Q20" t="n">
-        <v>4090.924412378809</v>
+        <v>4090.924412378808</v>
       </c>
       <c r="R20" t="n">
         <v>4194.243993063566</v>
       </c>
       <c r="S20" t="n">
-        <v>4127.418295300732</v>
+        <v>4127.418295300731</v>
       </c>
       <c r="T20" t="n">
-        <v>3951.657840329304</v>
+        <v>3951.657840329303</v>
       </c>
       <c r="U20" t="n">
-        <v>3848.750576018004</v>
+        <v>3725.252212114548</v>
       </c>
       <c r="V20" t="n">
-        <v>3544.75496987214</v>
+        <v>3421.256605968685</v>
       </c>
       <c r="W20" t="n">
-        <v>3219.053595799734</v>
+        <v>3095.555231896278</v>
       </c>
       <c r="X20" t="n">
-        <v>2872.655118736361</v>
+        <v>2749.156754832905</v>
       </c>
       <c r="Y20" t="n">
-        <v>2509.583067958256</v>
+        <v>2386.084704054801</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4196169967499</v>
       </c>
       <c r="H21" t="n">
-        <v>89.63616038958214</v>
+        <v>89.63616038958213</v>
       </c>
       <c r="I21" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="J21" t="n">
-        <v>213.2137843259437</v>
+        <v>213.2137843259436</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2137843259437</v>
+        <v>512.4123059858219</v>
       </c>
       <c r="L21" t="n">
-        <v>661.8456612437151</v>
+        <v>961.0441829035934</v>
       </c>
       <c r="M21" t="n">
-        <v>1204.734769180443</v>
+        <v>1503.933290840322</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.794981324838</v>
+        <v>1503.933290840322</v>
       </c>
       <c r="O21" t="n">
-        <v>1944.538269119363</v>
+        <v>2004.676578634847</v>
       </c>
       <c r="P21" t="n">
-        <v>2327.095837639262</v>
+        <v>2387.234147154746</v>
       </c>
       <c r="Q21" t="n">
-        <v>2532.906244656127</v>
+        <v>2556.193785036121</v>
       </c>
       <c r="R21" t="n">
         <v>2556.193785036121</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>906.6158555340899</v>
+        <v>816.9974315240538</v>
       </c>
       <c r="C22" t="n">
-        <v>764.7469538038901</v>
+        <v>675.1285297938541</v>
       </c>
       <c r="D22" t="n">
         <v>641.6975955892615</v>
@@ -5902,19 +5902,19 @@
         <v>260.7163454155641</v>
       </c>
       <c r="H22" t="n">
-        <v>144.4362824867007</v>
+        <v>144.4362824867006</v>
       </c>
       <c r="I22" t="n">
-        <v>83.88487986127133</v>
+        <v>83.88487986127132</v>
       </c>
       <c r="J22" t="n">
-        <v>177.9028446738478</v>
+        <v>177.9028446738482</v>
       </c>
       <c r="K22" t="n">
-        <v>445.1740124750613</v>
+        <v>445.1740124750615</v>
       </c>
       <c r="L22" t="n">
-        <v>835.2966372684893</v>
+        <v>835.2966372684896</v>
       </c>
       <c r="M22" t="n">
         <v>1255.573277564094</v>
@@ -5932,28 +5932,28 @@
         <v>2470.524783667159</v>
       </c>
       <c r="R22" t="n">
-        <v>2422.275147269078</v>
+        <v>2470.524783667159</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.281788026465</v>
+        <v>2311.531424424546</v>
       </c>
       <c r="T22" t="n">
-        <v>2069.961621532061</v>
+        <v>2118.211257930142</v>
       </c>
       <c r="U22" t="n">
-        <v>1807.943642252072</v>
+        <v>1856.193278650152</v>
       </c>
       <c r="V22" t="n">
-        <v>1580.326435243892</v>
+        <v>1628.576071641973</v>
       </c>
       <c r="W22" t="n">
-        <v>1317.976546404638</v>
+        <v>1366.226182802719</v>
       </c>
       <c r="X22" t="n">
-        <v>1117.054276704328</v>
+        <v>1165.303913102409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1061.197039166622</v>
+        <v>971.5786151565861</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.354910491972</v>
+        <v>2151.354910491971</v>
       </c>
       <c r="C23" t="n">
         <v>1809.459674749267</v>
@@ -5990,10 +5990,10 @@
         <v>343.4745174457566</v>
       </c>
       <c r="K23" t="n">
-        <v>779.6122407434427</v>
+        <v>779.6122407434418</v>
       </c>
       <c r="L23" t="n">
-        <v>1357.581414287748</v>
+        <v>1357.581414287747</v>
       </c>
       <c r="M23" t="n">
         <v>2032.352920037293</v>
@@ -6002,7 +6002,7 @@
         <v>2722.656742580589</v>
       </c>
       <c r="O23" t="n">
-        <v>3361.155806248958</v>
+        <v>3361.155806248957</v>
       </c>
       <c r="P23" t="n">
         <v>3871.598984033034</v>
@@ -6078,16 +6078,16 @@
         <v>1544.89127147883</v>
       </c>
       <c r="N24" t="n">
-        <v>1622.349582338593</v>
+        <v>2130.347330949999</v>
       </c>
       <c r="O24" t="n">
-        <v>2135.707703430774</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="P24" t="n">
-        <v>2528.389787815389</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="Q24" t="n">
-        <v>2528.389787815389</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="R24" t="n">
         <v>2554.969225999162</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>818.2810057379616</v>
+        <v>818.2810057379614</v>
       </c>
       <c r="C25" t="n">
         <v>676.4121040077617</v>
       </c>
       <c r="D25" t="n">
-        <v>553.3627457931332</v>
+        <v>642.3260952217552</v>
       </c>
       <c r="E25" t="n">
-        <v>432.5169334084472</v>
+        <v>521.4802828370692</v>
       </c>
       <c r="F25" t="n">
-        <v>312.694267108244</v>
+        <v>401.6576165368662</v>
       </c>
       <c r="G25" t="n">
-        <v>172.426848420652</v>
+        <v>261.3901978492742</v>
       </c>
       <c r="H25" t="n">
-        <v>86.32584234964193</v>
+        <v>145.5133625530421</v>
       </c>
       <c r="I25" t="n">
         <v>86.32584234964193</v>
@@ -6163,7 +6163,7 @@
         <v>2079.905642228546</v>
       </c>
       <c r="P25" t="n">
-        <v>2382.68021345557</v>
+        <v>2382.680213455569</v>
       </c>
       <c r="Q25" t="n">
         <v>2517.032137841641</v>
@@ -6190,7 +6190,7 @@
         <v>1166.587487316317</v>
       </c>
       <c r="Y25" t="n">
-        <v>972.8621893704941</v>
+        <v>972.862189370494</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2151.354910491972</v>
       </c>
       <c r="C26" t="n">
-        <v>1809.459674749268</v>
+        <v>1809.459674749267</v>
       </c>
       <c r="D26" t="n">
         <v>1478.261257340224</v>
@@ -6254,7 +6254,7 @@
         <v>4251.77037931435</v>
       </c>
       <c r="T26" t="n">
-        <v>4076.452517129646</v>
+        <v>4076.452517129648</v>
       </c>
       <c r="U26" t="n">
         <v>3850.054977418135</v>
@@ -6306,25 +6306,25 @@
         <v>220.6639846351115</v>
       </c>
       <c r="K27" t="n">
-        <v>528.4240915903936</v>
+        <v>439.6878655473761</v>
       </c>
       <c r="L27" t="n">
-        <v>988.5680765030849</v>
+        <v>899.8318504600674</v>
       </c>
       <c r="M27" t="n">
-        <v>1544.89127147883</v>
+        <v>1456.155045435812</v>
       </c>
       <c r="N27" t="n">
-        <v>1544.89127147883</v>
+        <v>2041.611104906981</v>
       </c>
       <c r="O27" t="n">
-        <v>2058.249392571011</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="P27" t="n">
-        <v>2315.811410066595</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="Q27" t="n">
-        <v>2528.389787815389</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="R27" t="n">
         <v>2554.969225999162</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>907.2443551665831</v>
+        <v>818.2810057379609</v>
       </c>
       <c r="C28" t="n">
-        <v>765.3754534363834</v>
+        <v>676.4121040077612</v>
       </c>
       <c r="D28" t="n">
-        <v>642.3260952217548</v>
+        <v>553.3627457931327</v>
       </c>
       <c r="E28" t="n">
-        <v>521.4802828370689</v>
+        <v>432.5169334084467</v>
       </c>
       <c r="F28" t="n">
-        <v>401.6576165368658</v>
+        <v>312.6942671082435</v>
       </c>
       <c r="G28" t="n">
-        <v>261.3901978492738</v>
+        <v>172.426848420652</v>
       </c>
       <c r="H28" t="n">
-        <v>145.5133625530421</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="I28" t="n">
         <v>86.32584234964193</v>
@@ -6385,10 +6385,10 @@
         <v>183.4864419915896</v>
       </c>
       <c r="K28" t="n">
-        <v>455.9219241967324</v>
+        <v>455.9219241967326</v>
       </c>
       <c r="L28" t="n">
-        <v>852.6530934159712</v>
+        <v>852.6530934159714</v>
       </c>
       <c r="M28" t="n">
         <v>1279.897517222292</v>
@@ -6412,22 +6412,22 @@
         <v>2312.618744698645</v>
       </c>
       <c r="T28" t="n">
-        <v>2208.455707783514</v>
+        <v>2119.492358354892</v>
       </c>
       <c r="U28" t="n">
-        <v>1946.440202292682</v>
+        <v>1857.47685286406</v>
       </c>
       <c r="V28" t="n">
-        <v>1718.822995284502</v>
+        <v>1629.85964585588</v>
       </c>
       <c r="W28" t="n">
-        <v>1456.473106445249</v>
+        <v>1367.509757016627</v>
       </c>
       <c r="X28" t="n">
-        <v>1255.550836744939</v>
+        <v>1166.587487316316</v>
       </c>
       <c r="Y28" t="n">
-        <v>1061.825538799116</v>
+        <v>972.8621893704934</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2151.354910491971</v>
+        <v>2151.354910491972</v>
       </c>
       <c r="C29" t="n">
         <v>1809.459674749267</v>
       </c>
       <c r="D29" t="n">
-        <v>1478.261257340223</v>
+        <v>1478.261257340224</v>
       </c>
       <c r="E29" t="n">
-        <v>1119.540285939686</v>
+        <v>1119.540285939687</v>
       </c>
       <c r="F29" t="n">
-        <v>735.6216623477858</v>
+        <v>735.6216623477867</v>
       </c>
       <c r="G29" t="n">
-        <v>348.4371911022801</v>
+        <v>348.4371911022819</v>
       </c>
       <c r="H29" t="n">
-        <v>86.32584234964193</v>
+        <v>86.32584234964192</v>
       </c>
       <c r="I29" t="n">
-        <v>86.32584234964193</v>
+        <v>86.32584234964192</v>
       </c>
       <c r="J29" t="n">
-        <v>343.4745174457576</v>
+        <v>343.4745174457569</v>
       </c>
       <c r="K29" t="n">
-        <v>779.6122407434432</v>
+        <v>779.6122407434425</v>
       </c>
       <c r="L29" t="n">
-        <v>1357.581414287748</v>
+        <v>1357.581414287747</v>
       </c>
       <c r="M29" t="n">
         <v>2032.352920037293</v>
       </c>
       <c r="N29" t="n">
-        <v>2722.65674258059</v>
+        <v>2722.656742580588</v>
       </c>
       <c r="O29" t="n">
-        <v>3361.155806248958</v>
+        <v>3361.155806248957</v>
       </c>
       <c r="P29" t="n">
-        <v>3871.598984033034</v>
+        <v>3871.598984033033</v>
       </c>
       <c r="Q29" t="n">
         <v>4206.747806024468</v>
       </c>
       <c r="R29" t="n">
-        <v>4316.292117482097</v>
+        <v>4316.292117482096</v>
       </c>
       <c r="S29" t="n">
-        <v>4251.77037931435</v>
+        <v>4251.770379314349</v>
       </c>
       <c r="T29" t="n">
-        <v>4076.452517129647</v>
+        <v>4076.452517129646</v>
       </c>
       <c r="U29" t="n">
         <v>3850.054977418134</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5590223447194</v>
+        <v>941.5590223447192</v>
       </c>
       <c r="C30" t="n">
-        <v>767.1059930635925</v>
+        <v>767.1059930635922</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1715834023412</v>
+        <v>618.171583402341</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9341283968856</v>
+        <v>458.9341283968855</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3995704237706</v>
+        <v>312.3995704237705</v>
       </c>
       <c r="G30" t="n">
-        <v>176.4755822443534</v>
+        <v>176.4755822443533</v>
       </c>
       <c r="H30" t="n">
-        <v>90.21458523966962</v>
+        <v>90.2145852396696</v>
       </c>
       <c r="I30" t="n">
-        <v>86.32584234964193</v>
+        <v>86.32584234964192</v>
       </c>
       <c r="J30" t="n">
         <v>220.6639846351115</v>
@@ -6546,19 +6546,19 @@
         <v>528.4240915903936</v>
       </c>
       <c r="L30" t="n">
-        <v>528.4240915903936</v>
+        <v>988.5680765030849</v>
       </c>
       <c r="M30" t="n">
-        <v>1084.747286566138</v>
+        <v>1544.89127147883</v>
       </c>
       <c r="N30" t="n">
-        <v>1436.350642773571</v>
+        <v>2130.347330949999</v>
       </c>
       <c r="O30" t="n">
-        <v>1949.708763865751</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="P30" t="n">
-        <v>2342.390848250367</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="Q30" t="n">
         <v>2554.969225999162</v>
@@ -6576,7 +6576,7 @@
         <v>2014.775623295218</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.623515063476</v>
+        <v>1779.623515063475</v>
       </c>
       <c r="W30" t="n">
         <v>1525.386158335274</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>907.2443551665841</v>
+        <v>818.2810057379622</v>
       </c>
       <c r="C31" t="n">
-        <v>765.3754534363843</v>
+        <v>676.4121040077625</v>
       </c>
       <c r="D31" t="n">
-        <v>642.3260952217556</v>
+        <v>553.3627457931341</v>
       </c>
       <c r="E31" t="n">
-        <v>521.4802828370696</v>
+        <v>521.480282837069</v>
       </c>
       <c r="F31" t="n">
-        <v>401.6576165368663</v>
+        <v>401.6576165368659</v>
       </c>
       <c r="G31" t="n">
-        <v>261.3901978492743</v>
+        <v>261.390197849274</v>
       </c>
       <c r="H31" t="n">
-        <v>145.5133625530422</v>
+        <v>145.513362553042</v>
       </c>
       <c r="I31" t="n">
-        <v>86.32584234964193</v>
+        <v>86.32584234964192</v>
       </c>
       <c r="J31" t="n">
-        <v>183.4864419915893</v>
+        <v>183.4864419915897</v>
       </c>
       <c r="K31" t="n">
-        <v>455.9219241967321</v>
+        <v>455.9219241967327</v>
       </c>
       <c r="L31" t="n">
-        <v>852.6530934159707</v>
+        <v>852.6530934159715</v>
       </c>
       <c r="M31" t="n">
         <v>1279.897517222292</v>
       </c>
       <c r="N31" t="n">
-        <v>1703.0484318101</v>
+        <v>1703.048431810101</v>
       </c>
       <c r="O31" t="n">
-        <v>2079.905642228546</v>
+        <v>2079.905642228547</v>
       </c>
       <c r="P31" t="n">
-        <v>2382.680213455569</v>
+        <v>2382.68021345557</v>
       </c>
       <c r="Q31" t="n">
-        <v>2517.03213784164</v>
+        <v>2517.032137841641</v>
       </c>
       <c r="R31" t="n">
-        <v>2470.821728305517</v>
+        <v>2470.821728305518</v>
       </c>
       <c r="S31" t="n">
-        <v>2312.618744698645</v>
+        <v>2312.618744698646</v>
       </c>
       <c r="T31" t="n">
-        <v>2119.492358354892</v>
+        <v>2119.492358354893</v>
       </c>
       <c r="U31" t="n">
-        <v>1857.476852864059</v>
+        <v>1857.476852864061</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.85964585588</v>
+        <v>1629.859645855881</v>
       </c>
       <c r="W31" t="n">
-        <v>1367.509757016626</v>
+        <v>1367.509757016628</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.587487316316</v>
+        <v>1166.587487316317</v>
       </c>
       <c r="Y31" t="n">
-        <v>972.862189370493</v>
+        <v>972.8621893704947</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.354910491972</v>
+        <v>2151.354910491973</v>
       </c>
       <c r="C32" t="n">
         <v>1809.459674749268</v>
@@ -6701,10 +6701,10 @@
         <v>343.4745174457566</v>
       </c>
       <c r="K32" t="n">
-        <v>779.6122407434427</v>
+        <v>779.6122407434418</v>
       </c>
       <c r="L32" t="n">
-        <v>1357.581414287748</v>
+        <v>1357.581414287747</v>
       </c>
       <c r="M32" t="n">
         <v>2032.352920037293</v>
@@ -6713,7 +6713,7 @@
         <v>2722.656742580589</v>
       </c>
       <c r="O32" t="n">
-        <v>3361.155806248958</v>
+        <v>3361.155806248957</v>
       </c>
       <c r="P32" t="n">
         <v>3871.598984033034</v>
@@ -6725,7 +6725,7 @@
         <v>4316.292117482097</v>
       </c>
       <c r="S32" t="n">
-        <v>4251.770379314351</v>
+        <v>4251.77037931435</v>
       </c>
       <c r="T32" t="n">
         <v>4076.452517129648</v>
@@ -6734,13 +6734,13 @@
         <v>3850.054977418135</v>
       </c>
       <c r="V32" t="n">
-        <v>3546.059371272271</v>
+        <v>3546.059371272272</v>
       </c>
       <c r="W32" t="n">
-        <v>3220.357997199864</v>
+        <v>3220.357997199865</v>
       </c>
       <c r="X32" t="n">
-        <v>2873.959520136491</v>
+        <v>2873.959520136492</v>
       </c>
       <c r="Y32" t="n">
         <v>2510.887469358387</v>
@@ -6780,25 +6780,25 @@
         <v>220.6639846351115</v>
       </c>
       <c r="K33" t="n">
-        <v>321.2060863223742</v>
+        <v>528.4240915903936</v>
       </c>
       <c r="L33" t="n">
-        <v>781.3500712350655</v>
+        <v>988.5680765030849</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.67326621081</v>
+        <v>1544.89127147883</v>
       </c>
       <c r="N33" t="n">
-        <v>1923.129325681979</v>
+        <v>2130.347330949999</v>
       </c>
       <c r="O33" t="n">
-        <v>1923.129325681979</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="P33" t="n">
-        <v>2315.811410066595</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="Q33" t="n">
-        <v>2528.389787815389</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="R33" t="n">
         <v>2554.969225999162</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>907.2443551665835</v>
+        <v>818.2810057379616</v>
       </c>
       <c r="C34" t="n">
-        <v>765.3754534363839</v>
+        <v>676.4121040077617</v>
       </c>
       <c r="D34" t="n">
         <v>642.3260952217553</v>
@@ -6883,25 +6883,25 @@
         <v>2470.821728305517</v>
       </c>
       <c r="S34" t="n">
-        <v>2401.582094127268</v>
+        <v>2312.618744698645</v>
       </c>
       <c r="T34" t="n">
-        <v>2208.455707783515</v>
+        <v>2119.492358354892</v>
       </c>
       <c r="U34" t="n">
-        <v>1946.440202292683</v>
+        <v>1857.47685286406</v>
       </c>
       <c r="V34" t="n">
-        <v>1718.822995284503</v>
+        <v>1629.859645855881</v>
       </c>
       <c r="W34" t="n">
-        <v>1456.473106445249</v>
+        <v>1367.509757016627</v>
       </c>
       <c r="X34" t="n">
-        <v>1255.550836744939</v>
+        <v>1166.587487316317</v>
       </c>
       <c r="Y34" t="n">
-        <v>1061.825538799116</v>
+        <v>972.8621893704941</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>1809.459674749267</v>
       </c>
       <c r="D35" t="n">
-        <v>1478.261257340224</v>
+        <v>1478.261257340223</v>
       </c>
       <c r="E35" t="n">
-        <v>1119.540285939687</v>
+        <v>1119.540285939686</v>
       </c>
       <c r="F35" t="n">
-        <v>735.6216623477867</v>
+        <v>735.6216623477858</v>
       </c>
       <c r="G35" t="n">
-        <v>348.4371911022819</v>
+        <v>348.4371911022821</v>
       </c>
       <c r="H35" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="I35" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J35" t="n">
-        <v>343.4745174457571</v>
+        <v>343.4745174457566</v>
       </c>
       <c r="K35" t="n">
-        <v>779.6122407434426</v>
+        <v>779.6122407434418</v>
       </c>
       <c r="L35" t="n">
         <v>1357.581414287747</v>
       </c>
       <c r="M35" t="n">
-        <v>2032.352920037292</v>
+        <v>2032.352920037293</v>
       </c>
       <c r="N35" t="n">
-        <v>2722.656742580588</v>
+        <v>2722.656742580589</v>
       </c>
       <c r="O35" t="n">
         <v>3361.155806248957</v>
       </c>
       <c r="P35" t="n">
-        <v>3871.598984033033</v>
+        <v>3871.598984033034</v>
       </c>
       <c r="Q35" t="n">
         <v>4206.747806024468</v>
       </c>
       <c r="R35" t="n">
-        <v>4316.292117482096</v>
+        <v>4316.292117482097</v>
       </c>
       <c r="S35" t="n">
-        <v>4251.770379314349</v>
+        <v>4251.77037931435</v>
       </c>
       <c r="T35" t="n">
         <v>4076.452517129647</v>
@@ -6974,13 +6974,13 @@
         <v>3546.05937127227</v>
       </c>
       <c r="W35" t="n">
-        <v>3220.357997199863</v>
+        <v>3220.357997199864</v>
       </c>
       <c r="X35" t="n">
-        <v>2873.95952013649</v>
+        <v>2873.959520136491</v>
       </c>
       <c r="Y35" t="n">
-        <v>2510.887469358386</v>
+        <v>2510.887469358387</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5590223447192</v>
+        <v>941.5590223447194</v>
       </c>
       <c r="C36" t="n">
-        <v>767.1059930635922</v>
+        <v>767.1059930635925</v>
       </c>
       <c r="D36" t="n">
-        <v>618.171583402341</v>
+        <v>618.1715834023412</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9341283968855</v>
+        <v>458.9341283968856</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3995704237705</v>
+        <v>312.3995704237706</v>
       </c>
       <c r="G36" t="n">
-        <v>176.4755822443533</v>
+        <v>176.4755822443534</v>
       </c>
       <c r="H36" t="n">
-        <v>90.2145852396696</v>
+        <v>90.21458523966962</v>
       </c>
       <c r="I36" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J36" t="n">
-        <v>220.6639846351115</v>
+        <v>131.927758592094</v>
       </c>
       <c r="K36" t="n">
-        <v>528.4240915903936</v>
+        <v>439.6878655473761</v>
       </c>
       <c r="L36" t="n">
-        <v>988.5680765030849</v>
+        <v>899.8318504600674</v>
       </c>
       <c r="M36" t="n">
-        <v>988.5680765030849</v>
+        <v>1456.155045435812</v>
       </c>
       <c r="N36" t="n">
-        <v>1409.771204589798</v>
+        <v>2041.611104906981</v>
       </c>
       <c r="O36" t="n">
-        <v>1923.129325681979</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="P36" t="n">
-        <v>2315.811410066595</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="Q36" t="n">
-        <v>2528.389787815389</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="R36" t="n">
         <v>2554.969225999162</v>
@@ -7050,7 +7050,7 @@
         <v>2014.775623295218</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.623515063475</v>
+        <v>1779.623515063476</v>
       </c>
       <c r="W36" t="n">
         <v>1525.386158335274</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>907.2443551665835</v>
+        <v>818.2810057379595</v>
       </c>
       <c r="C37" t="n">
-        <v>765.3754534363839</v>
+        <v>765.3754534363843</v>
       </c>
       <c r="D37" t="n">
-        <v>642.3260952217553</v>
+        <v>642.3260952217556</v>
       </c>
       <c r="E37" t="n">
-        <v>521.4802828370694</v>
+        <v>521.4802828370696</v>
       </c>
       <c r="F37" t="n">
-        <v>401.6576165368662</v>
+        <v>401.6576165368663</v>
       </c>
       <c r="G37" t="n">
         <v>261.3901978492743</v>
       </c>
       <c r="H37" t="n">
-        <v>145.513362553042</v>
+        <v>145.5133625530421</v>
       </c>
       <c r="I37" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J37" t="n">
-        <v>183.4864419915898</v>
+        <v>183.4864419915895</v>
       </c>
       <c r="K37" t="n">
-        <v>455.9219241967327</v>
+        <v>455.9219241967323</v>
       </c>
       <c r="L37" t="n">
-        <v>852.6530934159715</v>
+        <v>852.6530934159714</v>
       </c>
       <c r="M37" t="n">
         <v>1279.897517222292</v>
@@ -7108,37 +7108,37 @@
         <v>1703.048431810101</v>
       </c>
       <c r="O37" t="n">
-        <v>2079.905642228547</v>
+        <v>2079.905642228546</v>
       </c>
       <c r="P37" t="n">
-        <v>2382.68021345557</v>
+        <v>2382.680213455569</v>
       </c>
       <c r="Q37" t="n">
         <v>2517.032137841641</v>
       </c>
       <c r="R37" t="n">
-        <v>2470.821728305518</v>
+        <v>2470.821728305517</v>
       </c>
       <c r="S37" t="n">
-        <v>2401.582094127267</v>
+        <v>2312.618744698645</v>
       </c>
       <c r="T37" t="n">
-        <v>2208.455707783514</v>
+        <v>2119.492358354892</v>
       </c>
       <c r="U37" t="n">
-        <v>1946.440202292682</v>
+        <v>1857.47685286406</v>
       </c>
       <c r="V37" t="n">
-        <v>1718.822995284503</v>
+        <v>1629.85964585588</v>
       </c>
       <c r="W37" t="n">
-        <v>1456.473106445249</v>
+        <v>1367.509757016626</v>
       </c>
       <c r="X37" t="n">
-        <v>1255.550836744939</v>
+        <v>1166.587487316316</v>
       </c>
       <c r="Y37" t="n">
-        <v>1061.825538799116</v>
+        <v>972.8621893704922</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2151.354910491971</v>
       </c>
       <c r="C38" t="n">
-        <v>1809.459674749267</v>
+        <v>1809.459674749266</v>
       </c>
       <c r="D38" t="n">
         <v>1478.261257340223</v>
@@ -7160,34 +7160,34 @@
         <v>1119.540285939686</v>
       </c>
       <c r="F38" t="n">
-        <v>735.621662347786</v>
+        <v>735.6216623477853</v>
       </c>
       <c r="G38" t="n">
-        <v>348.4371911022812</v>
+        <v>348.4371911022805</v>
       </c>
       <c r="H38" t="n">
-        <v>86.32584234964122</v>
+        <v>86.32584234964031</v>
       </c>
       <c r="I38" t="n">
         <v>86.32584234964193</v>
       </c>
       <c r="J38" t="n">
-        <v>343.4745174457576</v>
+        <v>343.4745174457571</v>
       </c>
       <c r="K38" t="n">
-        <v>779.6122407434432</v>
+        <v>779.6122407434426</v>
       </c>
       <c r="L38" t="n">
-        <v>1357.581414287748</v>
+        <v>1357.581414287747</v>
       </c>
       <c r="M38" t="n">
         <v>2032.352920037293</v>
       </c>
       <c r="N38" t="n">
-        <v>2722.65674258059</v>
+        <v>2722.656742580589</v>
       </c>
       <c r="O38" t="n">
-        <v>3361.155806248958</v>
+        <v>3361.155806248957</v>
       </c>
       <c r="P38" t="n">
         <v>3871.598984033034</v>
@@ -7251,25 +7251,25 @@
         <v>86.32584234964193</v>
       </c>
       <c r="J39" t="n">
-        <v>86.32584234964193</v>
+        <v>220.6639846351115</v>
       </c>
       <c r="K39" t="n">
-        <v>394.085949304924</v>
+        <v>528.4240915903936</v>
       </c>
       <c r="L39" t="n">
-        <v>394.085949304924</v>
+        <v>988.5680765030849</v>
       </c>
       <c r="M39" t="n">
-        <v>950.4091442806688</v>
+        <v>1429.57560725204</v>
       </c>
       <c r="N39" t="n">
-        <v>1535.865203751838</v>
+        <v>2015.031666723209</v>
       </c>
       <c r="O39" t="n">
-        <v>1923.129325681979</v>
+        <v>2528.389787815389</v>
       </c>
       <c r="P39" t="n">
-        <v>2315.811410066595</v>
+        <v>2528.389787815389</v>
       </c>
       <c r="Q39" t="n">
         <v>2528.389787815389</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>818.2810057379616</v>
+        <v>864.4914152740832</v>
       </c>
       <c r="C40" t="n">
-        <v>676.4121040077619</v>
+        <v>722.6225135438834</v>
       </c>
       <c r="D40" t="n">
-        <v>553.3627457931333</v>
+        <v>599.5731553292546</v>
       </c>
       <c r="E40" t="n">
-        <v>432.5169334084474</v>
+        <v>478.7273429445684</v>
       </c>
       <c r="F40" t="n">
-        <v>401.6576165368661</v>
+        <v>401.6576165368663</v>
       </c>
       <c r="G40" t="n">
-        <v>261.3901978492742</v>
+        <v>261.3901978492743</v>
       </c>
       <c r="H40" t="n">
-        <v>145.513362553042</v>
+        <v>145.5133625530422</v>
       </c>
       <c r="I40" t="n">
         <v>86.32584234964193</v>
       </c>
       <c r="J40" t="n">
-        <v>183.4864419915896</v>
+        <v>183.4864419915895</v>
       </c>
       <c r="K40" t="n">
         <v>455.9219241967326</v>
       </c>
       <c r="L40" t="n">
-        <v>852.6530934159716</v>
+        <v>852.6530934159712</v>
       </c>
       <c r="M40" t="n">
         <v>1279.897517222292</v>
@@ -7345,37 +7345,37 @@
         <v>1703.048431810101</v>
       </c>
       <c r="O40" t="n">
-        <v>2079.905642228547</v>
+        <v>2079.905642228546</v>
       </c>
       <c r="P40" t="n">
-        <v>2382.68021345557</v>
+        <v>2382.680213455569</v>
       </c>
       <c r="Q40" t="n">
-        <v>2517.032137841641</v>
+        <v>2517.03213784164</v>
       </c>
       <c r="R40" t="n">
-        <v>2470.821728305518</v>
+        <v>2517.03213784164</v>
       </c>
       <c r="S40" t="n">
-        <v>2312.618744698646</v>
+        <v>2358.829154234768</v>
       </c>
       <c r="T40" t="n">
-        <v>2119.492358354893</v>
+        <v>2165.702767891014</v>
       </c>
       <c r="U40" t="n">
-        <v>1857.47685286406</v>
+        <v>1903.687262400183</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.859645855881</v>
+        <v>1676.070055392003</v>
       </c>
       <c r="W40" t="n">
-        <v>1367.509757016627</v>
+        <v>1413.720166552749</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.587487316317</v>
+        <v>1212.797896852439</v>
       </c>
       <c r="Y40" t="n">
-        <v>972.8621893704941</v>
+        <v>1019.072598906616</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.354910491971</v>
+        <v>2151.354910491973</v>
       </c>
       <c r="C41" t="n">
-        <v>1809.459674749267</v>
+        <v>1809.459674749268</v>
       </c>
       <c r="D41" t="n">
-        <v>1478.261257340223</v>
+        <v>1478.261257340224</v>
       </c>
       <c r="E41" t="n">
         <v>1119.540285939687</v>
       </c>
       <c r="F41" t="n">
-        <v>735.6216623477862</v>
+        <v>735.6216623477867</v>
       </c>
       <c r="G41" t="n">
-        <v>348.4371911022819</v>
+        <v>348.437191102282</v>
       </c>
       <c r="H41" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="I41" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J41" t="n">
-        <v>343.4745174457571</v>
+        <v>343.4745174457566</v>
       </c>
       <c r="K41" t="n">
-        <v>779.6122407434426</v>
+        <v>779.6122407434418</v>
       </c>
       <c r="L41" t="n">
         <v>1357.581414287747</v>
@@ -7424,37 +7424,37 @@
         <v>2722.656742580588</v>
       </c>
       <c r="O41" t="n">
-        <v>3361.155806248957</v>
+        <v>3361.155806248958</v>
       </c>
       <c r="P41" t="n">
-        <v>3871.598984033033</v>
+        <v>3871.598984033034</v>
       </c>
       <c r="Q41" t="n">
         <v>4206.747806024468</v>
       </c>
       <c r="R41" t="n">
-        <v>4316.292117482096</v>
+        <v>4316.292117482097</v>
       </c>
       <c r="S41" t="n">
-        <v>4251.770379314349</v>
+        <v>4251.770379314351</v>
       </c>
       <c r="T41" t="n">
-        <v>4076.452517129646</v>
+        <v>4076.452517129648</v>
       </c>
       <c r="U41" t="n">
-        <v>3850.054977418133</v>
+        <v>3850.054977418135</v>
       </c>
       <c r="V41" t="n">
-        <v>3546.059371272269</v>
+        <v>3546.059371272272</v>
       </c>
       <c r="W41" t="n">
-        <v>3220.357997199862</v>
+        <v>3220.357997199865</v>
       </c>
       <c r="X41" t="n">
-        <v>2873.95952013649</v>
+        <v>2873.959520136492</v>
       </c>
       <c r="Y41" t="n">
-        <v>2510.887469358386</v>
+        <v>2510.887469358387</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5590223447192</v>
+        <v>941.5590223447194</v>
       </c>
       <c r="C42" t="n">
-        <v>767.1059930635922</v>
+        <v>767.1059930635925</v>
       </c>
       <c r="D42" t="n">
-        <v>618.171583402341</v>
+        <v>618.1715834023412</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9341283968855</v>
+        <v>458.9341283968856</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3995704237705</v>
+        <v>312.3995704237706</v>
       </c>
       <c r="G42" t="n">
-        <v>176.4755822443533</v>
+        <v>176.4755822443534</v>
       </c>
       <c r="H42" t="n">
-        <v>90.2145852396696</v>
+        <v>90.21458523966962</v>
       </c>
       <c r="I42" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J42" t="n">
-        <v>86.32584234964192</v>
+        <v>220.6639846351115</v>
       </c>
       <c r="K42" t="n">
-        <v>394.085949304924</v>
+        <v>528.4240915903936</v>
       </c>
       <c r="L42" t="n">
-        <v>854.2299342176152</v>
+        <v>988.5680765030849</v>
       </c>
       <c r="M42" t="n">
-        <v>1410.55312919336</v>
+        <v>1544.89127147883</v>
       </c>
       <c r="N42" t="n">
-        <v>1949.708763865751</v>
+        <v>2130.347330949999</v>
       </c>
       <c r="O42" t="n">
-        <v>1949.708763865751</v>
+        <v>2162.287141614546</v>
       </c>
       <c r="P42" t="n">
-        <v>2342.390848250367</v>
+        <v>2554.969225999162</v>
       </c>
       <c r="Q42" t="n">
         <v>2554.969225999162</v>
@@ -7524,7 +7524,7 @@
         <v>2014.775623295218</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.623515063475</v>
+        <v>1779.623515063476</v>
       </c>
       <c r="W42" t="n">
         <v>1525.386158335274</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>818.2810057379619</v>
+        <v>818.2810057379609</v>
       </c>
       <c r="C43" t="n">
-        <v>676.4121040077622</v>
+        <v>676.4121040077612</v>
       </c>
       <c r="D43" t="n">
-        <v>553.3627457931336</v>
+        <v>642.3260952217553</v>
       </c>
       <c r="E43" t="n">
-        <v>432.5169334084477</v>
+        <v>521.4802828370694</v>
       </c>
       <c r="F43" t="n">
-        <v>342.4700963334658</v>
+        <v>401.6576165368662</v>
       </c>
       <c r="G43" t="n">
-        <v>202.202677645874</v>
+        <v>261.3901978492742</v>
       </c>
       <c r="H43" t="n">
-        <v>86.32584234964192</v>
+        <v>145.5133625530421</v>
       </c>
       <c r="I43" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J43" t="n">
-        <v>183.4864419915894</v>
+        <v>183.4864419915896</v>
       </c>
       <c r="K43" t="n">
-        <v>455.9219241967323</v>
+        <v>455.9219241967324</v>
       </c>
       <c r="L43" t="n">
         <v>852.6530934159712</v>
@@ -7582,37 +7582,37 @@
         <v>1703.048431810101</v>
       </c>
       <c r="O43" t="n">
-        <v>2079.905642228547</v>
+        <v>2079.905642228546</v>
       </c>
       <c r="P43" t="n">
-        <v>2382.68021345557</v>
+        <v>2382.680213455569</v>
       </c>
       <c r="Q43" t="n">
-        <v>2517.032137841642</v>
+        <v>2517.032137841641</v>
       </c>
       <c r="R43" t="n">
-        <v>2470.821728305519</v>
+        <v>2470.821728305517</v>
       </c>
       <c r="S43" t="n">
-        <v>2312.618744698646</v>
+        <v>2312.618744698645</v>
       </c>
       <c r="T43" t="n">
-        <v>2119.492358354893</v>
+        <v>2119.492358354892</v>
       </c>
       <c r="U43" t="n">
-        <v>1857.476852864061</v>
+        <v>1857.47685286406</v>
       </c>
       <c r="V43" t="n">
-        <v>1629.859645855881</v>
+        <v>1629.85964585588</v>
       </c>
       <c r="W43" t="n">
         <v>1367.509757016627</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.587487316317</v>
+        <v>1166.587487316316</v>
       </c>
       <c r="Y43" t="n">
-        <v>972.8621893704944</v>
+        <v>972.8621893704934</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2151.354910491972</v>
       </c>
       <c r="C44" t="n">
-        <v>1809.459674749268</v>
+        <v>1809.459674749267</v>
       </c>
       <c r="D44" t="n">
-        <v>1478.261257340225</v>
+        <v>1478.261257340223</v>
       </c>
       <c r="E44" t="n">
-        <v>1119.540285939688</v>
+        <v>1119.540285939686</v>
       </c>
       <c r="F44" t="n">
-        <v>735.6216623477872</v>
+        <v>735.6216623477858</v>
       </c>
       <c r="G44" t="n">
-        <v>348.4371911022819</v>
+        <v>348.4371911022821</v>
       </c>
       <c r="H44" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="I44" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J44" t="n">
-        <v>343.4745174457569</v>
+        <v>343.4745174457566</v>
       </c>
       <c r="K44" t="n">
-        <v>779.6122407434425</v>
+        <v>779.6122407434423</v>
       </c>
       <c r="L44" t="n">
         <v>1357.581414287747</v>
@@ -7658,25 +7658,25 @@
         <v>2032.352920037293</v>
       </c>
       <c r="N44" t="n">
-        <v>2722.656742580588</v>
+        <v>2722.656742580589</v>
       </c>
       <c r="O44" t="n">
-        <v>3361.155806248957</v>
+        <v>3361.155806248958</v>
       </c>
       <c r="P44" t="n">
-        <v>3871.598984033033</v>
+        <v>3871.598984033034</v>
       </c>
       <c r="Q44" t="n">
         <v>4206.747806024468</v>
       </c>
       <c r="R44" t="n">
-        <v>4316.292117482096</v>
+        <v>4316.292117482097</v>
       </c>
       <c r="S44" t="n">
-        <v>4251.770379314349</v>
+        <v>4251.77037931435</v>
       </c>
       <c r="T44" t="n">
-        <v>4076.452517129646</v>
+        <v>4076.452517129647</v>
       </c>
       <c r="U44" t="n">
         <v>3850.054977418134</v>
@@ -7685,7 +7685,7 @@
         <v>3546.05937127227</v>
       </c>
       <c r="W44" t="n">
-        <v>3220.357997199863</v>
+        <v>3220.357997199864</v>
       </c>
       <c r="X44" t="n">
         <v>2873.959520136491</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5590223447192</v>
+        <v>941.5590223447194</v>
       </c>
       <c r="C45" t="n">
-        <v>767.1059930635922</v>
+        <v>767.1059930635925</v>
       </c>
       <c r="D45" t="n">
-        <v>618.171583402341</v>
+        <v>618.1715834023412</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9341283968855</v>
+        <v>458.9341283968856</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3995704237705</v>
+        <v>312.3995704237706</v>
       </c>
       <c r="G45" t="n">
-        <v>176.4755822443533</v>
+        <v>176.4755822443534</v>
       </c>
       <c r="H45" t="n">
-        <v>90.2145852396696</v>
+        <v>90.21458523966962</v>
       </c>
       <c r="I45" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J45" t="n">
         <v>220.6639846351115</v>
       </c>
       <c r="K45" t="n">
-        <v>220.6639846351115</v>
+        <v>528.4240915903936</v>
       </c>
       <c r="L45" t="n">
-        <v>680.8079695478027</v>
+        <v>988.5680765030849</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.131164523547</v>
+        <v>988.5680765030849</v>
       </c>
       <c r="N45" t="n">
-        <v>1436.350642773571</v>
+        <v>1574.024135974254</v>
       </c>
       <c r="O45" t="n">
-        <v>1949.708763865751</v>
+        <v>2087.382257066434</v>
       </c>
       <c r="P45" t="n">
-        <v>2342.390848250367</v>
+        <v>2480.06434145105</v>
       </c>
       <c r="Q45" t="n">
         <v>2554.969225999162</v>
@@ -7761,7 +7761,7 @@
         <v>2014.775623295218</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.623515063475</v>
+        <v>1779.623515063476</v>
       </c>
       <c r="W45" t="n">
         <v>1525.386158335274</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>907.2443551665831</v>
+        <v>818.2810057379596</v>
       </c>
       <c r="C46" t="n">
-        <v>765.3754534363834</v>
+        <v>676.4121040077598</v>
       </c>
       <c r="D46" t="n">
-        <v>642.3260952217549</v>
+        <v>553.3627457931312</v>
       </c>
       <c r="E46" t="n">
-        <v>521.480282837069</v>
+        <v>432.5169334084452</v>
       </c>
       <c r="F46" t="n">
-        <v>401.6576165368659</v>
+        <v>401.6576165368663</v>
       </c>
       <c r="G46" t="n">
-        <v>261.390197849274</v>
+        <v>261.3901978492743</v>
       </c>
       <c r="H46" t="n">
-        <v>145.513362553042</v>
+        <v>145.5133625530422</v>
       </c>
       <c r="I46" t="n">
-        <v>86.32584234964192</v>
+        <v>86.32584234964193</v>
       </c>
       <c r="J46" t="n">
-        <v>183.4864419915896</v>
+        <v>183.4864419915895</v>
       </c>
       <c r="K46" t="n">
-        <v>455.9219241967326</v>
+        <v>455.9219241967324</v>
       </c>
       <c r="L46" t="n">
-        <v>852.6530934159714</v>
+        <v>852.6530934159711</v>
       </c>
       <c r="M46" t="n">
         <v>1279.897517222292</v>
       </c>
       <c r="N46" t="n">
-        <v>1703.048431810101</v>
+        <v>1703.0484318101</v>
       </c>
       <c r="O46" t="n">
-        <v>2079.905642228547</v>
+        <v>2079.905642228545</v>
       </c>
       <c r="P46" t="n">
-        <v>2382.68021345557</v>
+        <v>2382.680213455568</v>
       </c>
       <c r="Q46" t="n">
-        <v>2517.032137841641</v>
+        <v>2517.03213784164</v>
       </c>
       <c r="R46" t="n">
-        <v>2470.821728305518</v>
+        <v>2470.821728305516</v>
       </c>
       <c r="S46" t="n">
-        <v>2401.582094127267</v>
+        <v>2312.618744698644</v>
       </c>
       <c r="T46" t="n">
-        <v>2208.455707783514</v>
+        <v>2119.492358354891</v>
       </c>
       <c r="U46" t="n">
-        <v>1946.440202292682</v>
+        <v>1857.476852864059</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.822995284502</v>
+        <v>1629.859645855879</v>
       </c>
       <c r="W46" t="n">
-        <v>1456.473106445249</v>
+        <v>1367.509757016625</v>
       </c>
       <c r="X46" t="n">
-        <v>1255.550836744939</v>
+        <v>1166.587487316315</v>
       </c>
       <c r="Y46" t="n">
-        <v>1061.825538799116</v>
+        <v>972.8621893704922</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.29236085646851</v>
+        <v>79.23126628370574</v>
       </c>
       <c r="K2" t="n">
         <v>60.54420052128522</v>
       </c>
       <c r="L2" t="n">
-        <v>33.91920008821874</v>
+        <v>20.5434827590517</v>
       </c>
       <c r="M2" t="n">
-        <v>4.808157550421555</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3078477218925855</v>
+        <v>4.552817174243936</v>
       </c>
       <c r="P2" t="n">
         <v>35.11223672545287</v>
@@ -8143,16 +8143,16 @@
         <v>57.87034639841988</v>
       </c>
       <c r="M4" t="n">
-        <v>43.02834989775249</v>
+        <v>56.96725532498972</v>
       </c>
       <c r="N4" t="n">
-        <v>34.06833705578184</v>
+        <v>47.44405438494888</v>
       </c>
       <c r="O4" t="n">
-        <v>65.36161235427966</v>
+        <v>51.98589502511261</v>
       </c>
       <c r="P4" t="n">
-        <v>77.6763357595584</v>
+        <v>63.73743033232118</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,25 +8216,25 @@
         <v>65.29236085646851</v>
       </c>
       <c r="K5" t="n">
-        <v>46.60529509404799</v>
+        <v>60.54420052128522</v>
       </c>
       <c r="L5" t="n">
         <v>20.5434827590517</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.808157550421539</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.24675314912981</v>
+        <v>13.68356505105964</v>
       </c>
       <c r="P5" t="n">
-        <v>49.0511421526901</v>
+        <v>35.11223672545287</v>
       </c>
       <c r="Q5" t="n">
-        <v>79.27213694482495</v>
+        <v>75.02716749247358</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8377,10 +8377,10 @@
         <v>57.93692533070961</v>
       </c>
       <c r="L7" t="n">
-        <v>57.87034639841988</v>
+        <v>57.3071583003497</v>
       </c>
       <c r="M7" t="n">
-        <v>56.40406722691954</v>
+        <v>56.96725532498971</v>
       </c>
       <c r="N7" t="n">
         <v>48.00724248301906</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>44.63606764410435</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>129.2143182548924</v>
+        <v>47.20385316707261</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>33.88793923037926</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>290.9502639294478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>64.38101223036912</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>77.93438778582838</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>84.13253998070542</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>310.7287408440058</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>76.70959002357139</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.1123019868088</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>92.95404917093585</v>
       </c>
       <c r="T14" t="n">
-        <v>200.7994588074438</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.31405903832595</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7062521596501</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.9138706853049</v>
       </c>
       <c r="I16" t="n">
-        <v>86.74249698490517</v>
+        <v>86.74249698490519</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.1835732151902</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>235.5582931537587</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>122.2633802644215</v>
       </c>
       <c r="W17" t="n">
-        <v>122.263380264419</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>76.54349120486086</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>76.54349120486323</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>59.94588859917508</v>
+        <v>59.94588859917516</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>122.2633802644212</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>122.2633802644191</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>88.7222397699349</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.76714003410013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.4893798040356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>88.07371593433587</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>29.47807093296987</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>58.59564500136614</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>29.47807093296984</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>58.59564500136612</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>88.07371593433568</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.07371593433753</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>88.07371593433464</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>88.07371593433588</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>88.07371593433653</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>88.07371593433837</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>88.07371593433533</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>88.07371593433484</v>
+        <v>42.32541049357607</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>45.74830544076194</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>88.07371593433645</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.47807093296908</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>58.59564500136609</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>88.07371593433808</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>88.07371593433476</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778832.4080198056</v>
+        <v>778832.4080198054</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920627.0274751653</v>
+        <v>920627.0274751651</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920627.0274751653</v>
+        <v>920627.0274751652</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>932882.9361023258</v>
+        <v>932882.9361023259</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>932882.9361023259</v>
+        <v>932882.9361023258</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>932882.9361023259</v>
+        <v>932882.9361023258</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
         <v>426246.3737136507</v>
@@ -26326,31 +26326,31 @@
         <v>476072.4488174192</v>
       </c>
       <c r="G2" t="n">
-        <v>505021.1622999621</v>
+        <v>505021.162299962</v>
       </c>
       <c r="H2" t="n">
-        <v>505021.162299962</v>
+        <v>505021.1622999618</v>
       </c>
       <c r="I2" t="n">
         <v>511830.0004261623</v>
       </c>
       <c r="J2" t="n">
-        <v>511830.0004261624</v>
+        <v>511830.0004261623</v>
       </c>
       <c r="K2" t="n">
-        <v>511830.0004261622</v>
+        <v>511830.0004261623</v>
       </c>
       <c r="L2" t="n">
         <v>511830.0004261622</v>
       </c>
       <c r="M2" t="n">
-        <v>511830.0004261622</v>
+        <v>511830.0004261623</v>
       </c>
       <c r="N2" t="n">
         <v>511830.0004261624</v>
       </c>
       <c r="O2" t="n">
-        <v>511830.0004261624</v>
+        <v>511830.0004261623</v>
       </c>
       <c r="P2" t="n">
         <v>511830.0004261623</v>
@@ -26375,34 +26375,34 @@
         <v>707780.8576429537</v>
       </c>
       <c r="F3" t="n">
-        <v>202295.3349907746</v>
+        <v>202295.3349907744</v>
       </c>
       <c r="G3" t="n">
-        <v>21437.28670858407</v>
+        <v>21437.28670858403</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.195763499912573e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>26856.25221709703</v>
+        <v>26856.25221709708</v>
       </c>
       <c r="J3" t="n">
         <v>3647.030971604058</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>46284.18045877625</v>
+        <v>46284.18045877616</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>53188.2353549527</v>
+        <v>53188.23535495262</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>302817.5547799163</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.1789621407</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
         <v>12322.56615547581</v>
       </c>
       <c r="G4" t="n">
+        <v>38825.47732710467</v>
+      </c>
+      <c r="H4" t="n">
         <v>38825.47732710472</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38825.47732710473</v>
       </c>
       <c r="I4" t="n">
         <v>38665.94700975857</v>
       </c>
       <c r="J4" t="n">
-        <v>38665.94700975857</v>
+        <v>38665.94700975859</v>
       </c>
       <c r="K4" t="n">
-        <v>38665.94700975851</v>
+        <v>38665.94700975865</v>
       </c>
       <c r="L4" t="n">
         <v>38665.94700975857</v>
       </c>
       <c r="M4" t="n">
-        <v>38665.94700975862</v>
+        <v>38665.9470097585</v>
       </c>
       <c r="N4" t="n">
-        <v>38665.94700975859</v>
+        <v>38665.94700975855</v>
       </c>
       <c r="O4" t="n">
-        <v>38665.94700975863</v>
+        <v>38665.94700975857</v>
       </c>
       <c r="P4" t="n">
-        <v>38665.94700975863</v>
+        <v>38665.9470097585</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>91372.78350343596</v>
+        <v>91372.78350343593</v>
       </c>
       <c r="G5" t="n">
-        <v>93625.5475738159</v>
+        <v>93625.54757381587</v>
       </c>
       <c r="H5" t="n">
-        <v>93625.5475738159</v>
+        <v>93625.54757381589</v>
       </c>
       <c r="I5" t="n">
         <v>96023.47046049339</v>
       </c>
       <c r="J5" t="n">
-        <v>96023.47046049338</v>
+        <v>96023.47046049339</v>
       </c>
       <c r="K5" t="n">
         <v>96023.47046049338</v>
@@ -26503,7 +26503,7 @@
         <v>96023.47046049338</v>
       </c>
       <c r="N5" t="n">
-        <v>96023.47046049339</v>
+        <v>96023.47046049338</v>
       </c>
       <c r="O5" t="n">
         <v>96023.47046049338</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208832.9062889642</v>
+        <v>-208832.9062889641</v>
       </c>
       <c r="C6" t="n">
-        <v>122747.1660312545</v>
+        <v>122747.1660312546</v>
       </c>
       <c r="D6" t="n">
-        <v>11803.48721895704</v>
+        <v>11803.48721895715</v>
       </c>
       <c r="E6" t="n">
-        <v>-368051.003452837</v>
+        <v>-368398.6223826431</v>
       </c>
       <c r="F6" t="n">
-        <v>170081.7641677328</v>
+        <v>169933.4495383421</v>
       </c>
       <c r="G6" t="n">
-        <v>351132.8506904574</v>
+        <v>351100.3309149966</v>
       </c>
       <c r="H6" t="n">
-        <v>372570.1373990414</v>
+        <v>372537.6176235801</v>
       </c>
       <c r="I6" t="n">
-        <v>350284.3307388133</v>
+        <v>350279.0463158572</v>
       </c>
       <c r="J6" t="n">
-        <v>373493.5519843064</v>
+        <v>373488.2675613502</v>
       </c>
       <c r="K6" t="n">
-        <v>377140.5829559104</v>
+        <v>377135.2985329542</v>
       </c>
       <c r="L6" t="n">
-        <v>330856.4024971339</v>
+        <v>330851.1180741781</v>
       </c>
       <c r="M6" t="n">
-        <v>197890.9380176087</v>
+        <v>197885.6535946529</v>
       </c>
       <c r="N6" t="n">
-        <v>323952.3476009577</v>
+        <v>323947.0631780018</v>
       </c>
       <c r="O6" t="n">
-        <v>377140.5829559104</v>
+        <v>377135.2985329542</v>
       </c>
       <c r="P6" t="n">
-        <v>377140.5829559104</v>
+        <v>377135.2985329544</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="H2" t="n">
         <v>26.79660838573009</v>
@@ -26707,25 +26707,25 @@
         <v>26.79660838573009</v>
       </c>
       <c r="J2" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="K2" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="L2" t="n">
         <v>26.79660838573008</v>
       </c>
       <c r="M2" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="N2" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="O2" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="P2" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>112.1126601249236</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1048.560998265892</v>
+        <v>1048.560998265891</v>
       </c>
       <c r="G4" t="n">
-        <v>1048.560998265892</v>
+        <v>1048.560998265891</v>
       </c>
       <c r="H4" t="n">
-        <v>1048.560998265892</v>
+        <v>1048.560998265891</v>
       </c>
       <c r="I4" t="n">
         <v>1079.073029370524</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>26.79660838573014</v>
+        <v>26.79660838572995</v>
       </c>
       <c r="M2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,13 +26969,13 @@
         <v>613.6609493947961</v>
       </c>
       <c r="F3" t="n">
-        <v>177.2083823823784</v>
+        <v>177.2083823823782</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>24.8986878676983</v>
@@ -27018,10 +27018,10 @@
         <v>98.17375469768636</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>217.1595428635987</v>
+        <v>217.1595428635986</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.51203110463257</v>
+        <v>30.5120311046328</v>
       </c>
       <c r="J4" t="n">
         <v>13.93890542723723</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.17375469768636</v>
+        <v>98.17375469768659</v>
       </c>
       <c r="M4" t="n">
         <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>217.159542863599</v>
+        <v>217.1595428635986</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>98.17375469768636</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>217.1595428635987</v>
+        <v>217.1595428635986</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>394.5986578414009</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,19 +27427,19 @@
         <v>64.19830054973812</v>
       </c>
       <c r="S2" t="n">
-        <v>177.9417458832737</v>
+        <v>164.0028404560365</v>
       </c>
       <c r="T2" t="n">
         <v>203.1867691721214</v>
       </c>
       <c r="U2" t="n">
-        <v>237.2976409135674</v>
+        <v>251.2365463408047</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>343.8396265588139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>158.7695935610785</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>143.7061750281637</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>131.1303069661466</v>
       </c>
       <c r="G3" t="n">
         <v>136.613802664483</v>
@@ -27476,7 +27476,7 @@
         <v>105.1879384198378</v>
       </c>
       <c r="I3" t="n">
-        <v>50.33378525307428</v>
+        <v>51.99530278000096</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>42.5741372874737</v>
+        <v>40.91261976054702</v>
       </c>
       <c r="S3" t="n">
-        <v>158.1290443401915</v>
+        <v>144.1901389129543</v>
       </c>
       <c r="T3" t="n">
         <v>197.2234671845994</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>154.9694331983173</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>142.8490923135865</v>
       </c>
       <c r="I4" t="n">
-        <v>137.0529390090937</v>
+        <v>124.7755511087831</v>
       </c>
       <c r="J4" t="n">
-        <v>50.10717381813404</v>
+        <v>36.16826839089681</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.93480524014232</v>
+        <v>20.99589981290509</v>
       </c>
       <c r="R4" t="n">
         <v>149.7860719541821</v>
@@ -27588,7 +27588,7 @@
         <v>213.3551481109984</v>
       </c>
       <c r="T4" t="n">
-        <v>211.3927656571696</v>
+        <v>225.3316710844068</v>
       </c>
       <c r="U4" t="n">
         <v>286.2856601861436</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>211.7707499617999</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>392.9371403144742</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>325.5074567455836</v>
+        <v>313.230068845273</v>
       </c>
       <c r="I5" t="n">
-        <v>152.495410843126</v>
+        <v>143.9578475744879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>177.9417458832737</v>
       </c>
       <c r="T5" t="n">
-        <v>203.1867691721214</v>
+        <v>217.1256745993586</v>
       </c>
       <c r="U5" t="n">
-        <v>237.2976409135674</v>
+        <v>251.2365463408047</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27704,13 +27704,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>132.7918244930733</v>
       </c>
       <c r="G6" t="n">
-        <v>136.613802664483</v>
+        <v>122.6748972372458</v>
       </c>
       <c r="H6" t="n">
-        <v>105.1879384198378</v>
+        <v>91.24903299260063</v>
       </c>
       <c r="I6" t="n">
         <v>50.33378525307428</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>42.5741372874737</v>
+        <v>54.85152518778425</v>
       </c>
       <c r="S6" t="n">
         <v>158.1290443401915</v>
@@ -27749,13 +27749,13 @@
         <v>197.2234671845994</v>
       </c>
       <c r="U6" t="n">
-        <v>211.9544691209266</v>
+        <v>225.8933745481638</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>237.7560777336824</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>153.3079156713906</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>131.482142595694</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>153.440305808187</v>
+        <v>167.3792112354243</v>
       </c>
       <c r="H7" t="n">
         <v>156.7879977408238</v>
@@ -27795,7 +27795,7 @@
         <v>137.0529390090937</v>
       </c>
       <c r="J7" t="n">
-        <v>50.10717381813404</v>
+        <v>36.16826839089681</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.93480524014232</v>
+        <v>20.99589981290509</v>
       </c>
       <c r="R7" t="n">
         <v>149.7860719541821</v>
       </c>
       <c r="S7" t="n">
-        <v>201.0777602106878</v>
+        <v>213.3551481109984</v>
       </c>
       <c r="T7" t="n">
-        <v>225.3316710844068</v>
+        <v>213.0542831840963</v>
       </c>
       <c r="U7" t="n">
-        <v>272.3467547589063</v>
+        <v>286.2856601861436</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>286.7888108191741</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>242.5703814957594</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8177099473382</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>337.7639464891584</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195642</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410439</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547967</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519765</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T8" t="n">
-        <v>214.7171693596231</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27932,22 +27932,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>60.59583886339215</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>103.2655198610416</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846029</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>24.20675900740724</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30702260805646</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.5739230774922</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>83.9242348401676</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855986</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.13416097370424</v>
+        <v>68.49799006059514</v>
       </c>
       <c r="D10" t="n">
         <v>36.50281289328876</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164558</v>
       </c>
       <c r="F10" t="n">
         <v>33.30838789800765</v>
@@ -28032,7 +28032,7 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>32.65832442698834</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>159.6191487779928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="C17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="D17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="E17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="F17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="G17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="H17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="I17" t="n">
-        <v>14.11230198680877</v>
+        <v>14.1123019868088</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="T17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="U17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="V17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="W17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="X17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="Y17" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="C19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="D19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="E19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="F19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="G19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="H19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="I19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="J19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="K19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="L19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="M19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="N19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="O19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="P19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="R19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="S19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="T19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="U19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="V19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="W19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="X19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573003</v>
       </c>
     </row>
     <row r="20">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="C26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="D26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="E26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="F26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="G26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="H26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="I26" t="n">
         <v>10.25338072441906</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="T26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="U26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="V26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="W26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="X26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="Y26" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="C28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="D28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="E28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="F28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="G28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="H28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="I28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="J28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="K28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="L28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="M28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="N28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="O28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="P28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="R28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="S28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="T28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="U28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="V28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="W28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="X28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.79660838573009</v>
+        <v>26.79660838573011</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="C29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="D29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="E29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="F29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="G29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="H29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="I29" t="n">
         <v>10.25338072441906</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="T29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="U29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="V29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="W29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="X29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="Y29" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="C31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="D31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="E31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="F31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="G31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="H31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="I31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="J31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="K31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="L31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="M31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="N31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="O31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="P31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="R31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="S31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="T31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="U31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="V31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="W31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="X31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.79660838573003</v>
+        <v>26.79660838573017</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="C35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="D35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="E35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="F35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="G35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="H35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="I35" t="n">
         <v>10.25338072441906</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="T35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="U35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="V35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="W35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="X35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="Y35" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="C37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="D37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="E37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="F37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="G37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="H37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="I37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="J37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="K37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="L37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="M37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="N37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="O37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="P37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="R37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="S37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="T37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="U37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="V37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="W37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="X37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="C38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="D38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="E38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="F38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="G38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="H38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="I38" t="n">
-        <v>10.25338072441906</v>
+        <v>10.25338072442066</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="T38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="U38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="V38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="W38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="X38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="Y38" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="C40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="D40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="E40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="F40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="G40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="H40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="I40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="J40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="K40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="L40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="M40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="N40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="O40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="P40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="R40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="S40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="T40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="U40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="V40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="W40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="X40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.79660838573011</v>
+        <v>26.79660838573</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="C41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="D41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="E41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="F41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="G41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="H41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="I41" t="n">
         <v>10.25338072441906</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="T41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="U41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="V41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="W41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="X41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="Y41" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="C43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="D43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="E43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="F43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="G43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="H43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="I43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="J43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="K43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="L43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="M43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="N43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="O43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="P43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="R43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="S43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="T43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="U43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="V43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="W43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="X43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573008</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="C44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="D44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="E44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="F44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="G44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="H44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="I44" t="n">
         <v>10.25338072441906</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="T44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="U44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="V44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="W44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="X44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="C46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="D46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="E46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="F46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="G46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="H46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="I46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="J46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="K46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="L46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="M46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="N46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="O46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="P46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="R46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="S46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="T46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="U46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="V46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="W46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="X46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.79660838573015</v>
+        <v>26.79660838573002</v>
       </c>
     </row>
   </sheetData>
@@ -31136,10 +31136,10 @@
         <v>152.4932852071114</v>
       </c>
       <c r="M3" t="n">
-        <v>156.0729393492555</v>
+        <v>150.1406944304191</v>
       </c>
       <c r="N3" t="n">
-        <v>139.3483725917341</v>
+        <v>145.2806175105706</v>
       </c>
       <c r="O3" t="n">
         <v>156.5351498716817</v>
@@ -31376,10 +31376,10 @@
         <v>156.0729393492555</v>
       </c>
       <c r="N6" t="n">
-        <v>145.2806175105705</v>
+        <v>139.3483725917341</v>
       </c>
       <c r="O6" t="n">
-        <v>150.6029049528453</v>
+        <v>156.5351498716817</v>
       </c>
       <c r="P6" t="n">
         <v>139.3434642350965</v>
@@ -31613,13 +31613,13 @@
         <v>254.2466940469419</v>
       </c>
       <c r="N9" t="n">
-        <v>243.4543722082569</v>
+        <v>189.1706736602744</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628787</v>
       </c>
       <c r="P9" t="n">
-        <v>141.274108769757</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.093407368746435</v>
+        <v>5.093407368746434</v>
       </c>
       <c r="H14" t="n">
-        <v>52.16285821517445</v>
+        <v>52.16285821517443</v>
       </c>
       <c r="I14" t="n">
         <v>196.3635875835971</v>
       </c>
       <c r="J14" t="n">
-        <v>432.2965836631432</v>
+        <v>432.2965836631431</v>
       </c>
       <c r="K14" t="n">
-        <v>647.9005175821799</v>
+        <v>647.9005175821798</v>
       </c>
       <c r="L14" t="n">
-        <v>803.7778833434538</v>
+        <v>803.7778833434536</v>
       </c>
       <c r="M14" t="n">
-        <v>894.3577666373982</v>
+        <v>894.357766637398</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8294103238491</v>
+        <v>908.8294103238488</v>
       </c>
       <c r="O14" t="n">
-        <v>858.1818408008767</v>
+        <v>858.1818408008764</v>
       </c>
       <c r="P14" t="n">
-        <v>732.4383463849489</v>
+        <v>732.4383463849488</v>
       </c>
       <c r="Q14" t="n">
-        <v>550.030694991717</v>
+        <v>550.0306949917169</v>
       </c>
       <c r="R14" t="n">
-        <v>319.9487506270186</v>
+        <v>319.9487506270185</v>
       </c>
       <c r="S14" t="n">
         <v>116.0660204153095</v>
@@ -32029,7 +32029,7 @@
         <v>22.29639075668753</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4074725894997148</v>
+        <v>0.4074725894997147</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>26.31982219540038</v>
       </c>
       <c r="I15" t="n">
-        <v>93.82861227697229</v>
+        <v>93.82861227697228</v>
       </c>
       <c r="J15" t="n">
-        <v>257.4728837016892</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>440.0621679237311</v>
+        <v>440.062167923731</v>
       </c>
       <c r="L15" t="n">
-        <v>591.7178918180272</v>
+        <v>591.7178918180271</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5068702217437</v>
+        <v>690.5068702217436</v>
       </c>
       <c r="N15" t="n">
-        <v>708.7825324091949</v>
+        <v>708.7825324091948</v>
       </c>
       <c r="O15" t="n">
-        <v>218.1002577508121</v>
+        <v>648.3975452469955</v>
       </c>
       <c r="P15" t="n">
-        <v>520.3961937980662</v>
+        <v>244.2569313975051</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>169.2022720245631</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>50.61963987171686</v>
@@ -32108,7 +32108,7 @@
         <v>10.98452161560987</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1792903419305204</v>
+        <v>0.1792903419305203</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>20.31330182213463</v>
       </c>
       <c r="I16" t="n">
-        <v>68.70797794235311</v>
+        <v>68.7079779423531</v>
       </c>
       <c r="J16" t="n">
         <v>161.5302129557678</v>
@@ -32166,28 +32166,28 @@
         <v>358.1413735368785</v>
       </c>
       <c r="N16" t="n">
-        <v>349.6255721595013</v>
+        <v>349.6255721595012</v>
       </c>
       <c r="O16" t="n">
-        <v>322.9358044279644</v>
+        <v>322.9358044279643</v>
       </c>
       <c r="P16" t="n">
-        <v>276.3273695722688</v>
+        <v>276.3273695722687</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.3147475293272</v>
+        <v>191.3147475293271</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7296429573393</v>
+        <v>102.7296429573392</v>
       </c>
       <c r="S16" t="n">
         <v>39.81656400105526</v>
       </c>
       <c r="T16" t="n">
-        <v>9.762016213091275</v>
+        <v>9.762016213091274</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1246214835713782</v>
+        <v>0.1246214835713781</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.093407368746435</v>
+        <v>5.093407368746434</v>
       </c>
       <c r="H17" t="n">
-        <v>52.16285821517445</v>
+        <v>52.16285821517443</v>
       </c>
       <c r="I17" t="n">
         <v>196.3635875835971</v>
       </c>
       <c r="J17" t="n">
-        <v>432.2965836631432</v>
+        <v>432.2965836631431</v>
       </c>
       <c r="K17" t="n">
-        <v>647.9005175821799</v>
+        <v>647.9005175821798</v>
       </c>
       <c r="L17" t="n">
-        <v>803.7778833434538</v>
+        <v>803.7778833434536</v>
       </c>
       <c r="M17" t="n">
-        <v>894.3577666373982</v>
+        <v>894.357766637398</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8294103238491</v>
+        <v>908.8294103238488</v>
       </c>
       <c r="O17" t="n">
-        <v>858.1818408008767</v>
+        <v>858.1818408008764</v>
       </c>
       <c r="P17" t="n">
-        <v>732.4383463849489</v>
+        <v>732.4383463849488</v>
       </c>
       <c r="Q17" t="n">
-        <v>550.030694991717</v>
+        <v>550.0306949917169</v>
       </c>
       <c r="R17" t="n">
-        <v>319.9487506270186</v>
+        <v>319.9487506270185</v>
       </c>
       <c r="S17" t="n">
         <v>116.0660204153095</v>
@@ -32266,7 +32266,7 @@
         <v>22.29639075668753</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4074725894997148</v>
+        <v>0.4074725894997147</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>26.31982219540038</v>
       </c>
       <c r="I18" t="n">
-        <v>93.82861227697229</v>
+        <v>93.82861227697228</v>
       </c>
       <c r="J18" t="n">
-        <v>257.4728837016892</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>440.0621679237311</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>591.7178918180272</v>
+        <v>409.9100583498021</v>
       </c>
       <c r="M18" t="n">
-        <v>690.5068702217437</v>
+        <v>690.5068702217436</v>
       </c>
       <c r="N18" t="n">
-        <v>708.7825324091949</v>
+        <v>708.7825324091948</v>
       </c>
       <c r="O18" t="n">
-        <v>218.1002577508121</v>
+        <v>648.3975452469955</v>
       </c>
       <c r="P18" t="n">
         <v>520.3961937980662</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>347.8710741030575</v>
       </c>
       <c r="R18" t="n">
-        <v>169.2022720245631</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>50.61963987171686</v>
@@ -32345,7 +32345,7 @@
         <v>10.98452161560987</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1792903419305204</v>
+        <v>0.1792903419305203</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>20.31330182213463</v>
       </c>
       <c r="I19" t="n">
-        <v>68.70797794235311</v>
+        <v>68.7079779423531</v>
       </c>
       <c r="J19" t="n">
         <v>161.5302129557678</v>
@@ -32403,28 +32403,28 @@
         <v>358.1413735368785</v>
       </c>
       <c r="N19" t="n">
-        <v>349.6255721595013</v>
+        <v>349.6255721595012</v>
       </c>
       <c r="O19" t="n">
-        <v>322.9358044279644</v>
+        <v>322.9358044279643</v>
       </c>
       <c r="P19" t="n">
-        <v>276.3273695722688</v>
+        <v>276.3273695722687</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.3147475293272</v>
+        <v>191.3147475293271</v>
       </c>
       <c r="R19" t="n">
-        <v>102.7296429573393</v>
+        <v>102.7296429573392</v>
       </c>
       <c r="S19" t="n">
         <v>39.81656400105526</v>
       </c>
       <c r="T19" t="n">
-        <v>9.762016213091275</v>
+        <v>9.762016213091274</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1246214835713782</v>
+        <v>0.1246214835713781</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>257.4728837016892</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>440.0621679237311</v>
       </c>
       <c r="L21" t="n">
         <v>591.7178918180272</v>
@@ -32561,7 +32561,7 @@
         <v>690.5068702217437</v>
       </c>
       <c r="N21" t="n">
-        <v>372.8166738453479</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>648.3975452469956</v>
@@ -32570,10 +32570,10 @@
         <v>520.3961937980662</v>
       </c>
       <c r="Q21" t="n">
-        <v>347.8710741030575</v>
+        <v>310.6480749762987</v>
       </c>
       <c r="R21" t="n">
-        <v>169.2022720245631</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>50.61963987171686</v>
@@ -32798,19 +32798,19 @@
         <v>704.0766551096393</v>
       </c>
       <c r="N24" t="n">
-        <v>209.5824301234982</v>
+        <v>722.7114691249179</v>
       </c>
       <c r="O24" t="n">
-        <v>661.1398011032129</v>
+        <v>571.5072495446091</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6229774998006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>172.5274213213097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.61441292001594</v>
@@ -33026,7 +33026,7 @@
         <v>262.5327198843127</v>
       </c>
       <c r="K27" t="n">
-        <v>448.7102338786843</v>
+        <v>359.0776823200808</v>
       </c>
       <c r="L27" t="n">
         <v>603.3462837320876</v>
@@ -33035,19 +33035,19 @@
         <v>704.0766551096393</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>722.7114691249179</v>
       </c>
       <c r="O27" t="n">
         <v>661.1398011032129</v>
       </c>
       <c r="P27" t="n">
-        <v>394.138061450274</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>354.7074081757131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>172.5274213213097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.61441292001594</v>
@@ -33266,22 +33266,22 @@
         <v>448.7102338786843</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>603.3462837320876</v>
       </c>
       <c r="M30" t="n">
         <v>704.0766551096393</v>
       </c>
       <c r="N30" t="n">
-        <v>486.4966173433658</v>
+        <v>722.7114691249179</v>
       </c>
       <c r="O30" t="n">
-        <v>661.1398011032129</v>
+        <v>571.5072495446091</v>
       </c>
       <c r="P30" t="n">
-        <v>530.6229774998006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>354.7074081757131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,7 +33500,7 @@
         <v>262.5327198843127</v>
       </c>
       <c r="K33" t="n">
-        <v>239.3991174463415</v>
+        <v>448.7102338786843</v>
       </c>
       <c r="L33" t="n">
         <v>603.3462837320876</v>
@@ -33512,16 +33512,16 @@
         <v>722.7114691249179</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>571.5072495446091</v>
       </c>
       <c r="P33" t="n">
-        <v>530.6229774998006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>354.7074081757131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>172.5274213213097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.61441292001594</v>
@@ -33734,7 +33734,7 @@
         <v>95.67252453887259</v>
       </c>
       <c r="J36" t="n">
-        <v>262.5327198843127</v>
+        <v>172.9001683257092</v>
       </c>
       <c r="K36" t="n">
         <v>448.7102338786843</v>
@@ -33743,22 +33743,22 @@
         <v>603.3462837320876</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>704.0766551096393</v>
       </c>
       <c r="N36" t="n">
-        <v>556.7994172214277</v>
+        <v>722.7114691249179</v>
       </c>
       <c r="O36" t="n">
         <v>661.1398011032129</v>
       </c>
       <c r="P36" t="n">
-        <v>530.6229774998006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>354.7074081757131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>172.5274213213097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.61441292001594</v>
@@ -33971,28 +33971,28 @@
         <v>95.67252453887259</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>262.5327198843127</v>
       </c>
       <c r="K39" t="n">
         <v>448.7102338786843</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>603.3462837320876</v>
       </c>
       <c r="M39" t="n">
-        <v>704.0766551096393</v>
+        <v>587.5961861936901</v>
       </c>
       <c r="N39" t="n">
         <v>722.7114691249179</v>
       </c>
       <c r="O39" t="n">
-        <v>533.772125181961</v>
+        <v>661.1398011032129</v>
       </c>
       <c r="P39" t="n">
-        <v>530.6229774998006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>354.7074081757131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>172.5274213213097</v>
@@ -34208,7 +34208,7 @@
         <v>95.67252453887259</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>262.5327198843127</v>
       </c>
       <c r="K42" t="n">
         <v>448.7102338786843</v>
@@ -34220,16 +34220,16 @@
         <v>704.0766551096393</v>
       </c>
       <c r="N42" t="n">
-        <v>675.9433632675671</v>
+        <v>722.7114691249179</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>174.8586794591386</v>
       </c>
       <c r="P42" t="n">
         <v>530.6229774998006</v>
       </c>
       <c r="Q42" t="n">
-        <v>354.7074081757131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,16 +34448,16 @@
         <v>262.5327198843127</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>448.7102338786843</v>
       </c>
       <c r="L45" t="n">
         <v>603.3462837320876</v>
       </c>
       <c r="M45" t="n">
-        <v>704.0766551096393</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>332.573508295478</v>
+        <v>722.7114691249179</v>
       </c>
       <c r="O45" t="n">
         <v>661.1398011032129</v>
@@ -34466,7 +34466,7 @@
         <v>530.6229774998006</v>
       </c>
       <c r="Q45" t="n">
-        <v>354.7074081757131</v>
+        <v>215.6432736295686</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="K2" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="L2" t="n">
-        <v>13.37571732916704</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>13.93890542723723</v>
+        <v>9.13074787681569</v>
       </c>
       <c r="N2" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.24496945235135</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>13.93890542723723</v>
       </c>
       <c r="M3" t="n">
+        <v>8.00666050840082</v>
+      </c>
+      <c r="N3" t="n">
         <v>13.93890542723723</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.006660508400822</v>
       </c>
       <c r="O3" t="n">
         <v>13.93890542723723</v>
@@ -34863,16 +34863,16 @@
         <v>13.93890542723723</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.37571732916704</v>
       </c>
       <c r="O4" t="n">
-        <v>13.37571732916704</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.13074787681569</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="N5" t="n">
         <v>13.93890542723722</v>
       </c>
       <c r="O5" t="n">
-        <v>13.93890542723723</v>
+        <v>13.37571732916705</v>
       </c>
       <c r="P5" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.244969452351365</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>13.93890542723723</v>
       </c>
       <c r="N6" t="n">
+        <v>8.006660508400818</v>
+      </c>
+      <c r="O6" t="n">
         <v>13.93890542723723</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.006660508400822</v>
       </c>
       <c r="P6" t="n">
         <v>5.369056820766218</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>13.37571732916704</v>
+      </c>
+      <c r="M7" t="n">
         <v>13.93890542723723</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13.37571732916704</v>
       </c>
       <c r="N7" t="n">
         <v>13.93890542723723</v>
@@ -35261,13 +35261,13 @@
         <v>112.1126601249236</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249236</v>
+        <v>57.82896157694105</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>7.299701355426773</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>77.48066063832789</v>
       </c>
       <c r="L10" t="n">
-        <v>37.39724374155958</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336805999</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O10" t="n">
-        <v>112.1126601249236</v>
+        <v>30.10219503710381</v>
       </c>
       <c r="P10" t="n">
-        <v>101.1186240836618</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>251.2506791364569</v>
+        <v>251.2506791364568</v>
       </c>
       <c r="K14" t="n">
-        <v>427.8106665371993</v>
+        <v>427.8106665371992</v>
       </c>
       <c r="L14" t="n">
-        <v>568.0114683734666</v>
+        <v>568.0114683734664</v>
       </c>
       <c r="M14" t="n">
-        <v>664.0115334101255</v>
+        <v>664.0115334101253</v>
       </c>
       <c r="N14" t="n">
-        <v>679.4163467272581</v>
+        <v>679.4163467272579</v>
       </c>
       <c r="O14" t="n">
-        <v>628.0836293791899</v>
+        <v>628.0836293791897</v>
       </c>
       <c r="P14" t="n">
-        <v>501.2053506296793</v>
+        <v>501.2053506296792</v>
       </c>
       <c r="Q14" t="n">
-        <v>327.7250051172675</v>
+        <v>327.7250051172674</v>
       </c>
       <c r="R14" t="n">
         <v>104.3632128128864</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>130.6352570350225</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>302.2207289493721</v>
+        <v>302.220728949372</v>
       </c>
       <c r="L15" t="n">
-        <v>453.163512038153</v>
+        <v>453.1635120381529</v>
       </c>
       <c r="M15" t="n">
         <v>548.3728362997253</v>
       </c>
       <c r="N15" t="n">
-        <v>577.4408203258616</v>
+        <v>577.4408203258615</v>
       </c>
       <c r="O15" t="n">
-        <v>75.50401330636764</v>
+        <v>505.8013008025511</v>
       </c>
       <c r="P15" t="n">
-        <v>386.4217863837359</v>
+        <v>110.2825239831749</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.52276806059913</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.17103283909503</v>
+        <v>68.17103283909501</v>
       </c>
       <c r="K16" t="n">
         <v>243.1742681811523</v>
       </c>
       <c r="L16" t="n">
-        <v>367.2666489813689</v>
+        <v>367.2666489813688</v>
       </c>
       <c r="M16" t="n">
-        <v>397.7252504987191</v>
+        <v>397.725250498719</v>
       </c>
       <c r="N16" t="n">
         <v>393.7577445387299</v>
       </c>
       <c r="O16" t="n">
-        <v>347.5209323420041</v>
+        <v>347.520932342004</v>
       </c>
       <c r="P16" t="n">
-        <v>273.6059288371623</v>
+        <v>273.6059288371622</v>
       </c>
       <c r="Q16" t="n">
         <v>105.1527042776328</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>251.2506791364569</v>
+        <v>251.2506791364568</v>
       </c>
       <c r="K17" t="n">
-        <v>427.8106665371993</v>
+        <v>427.8106665371992</v>
       </c>
       <c r="L17" t="n">
-        <v>568.0114683734666</v>
+        <v>568.0114683734664</v>
       </c>
       <c r="M17" t="n">
-        <v>664.0115334101255</v>
+        <v>664.0115334101253</v>
       </c>
       <c r="N17" t="n">
-        <v>679.4163467272581</v>
+        <v>679.4163467272579</v>
       </c>
       <c r="O17" t="n">
-        <v>628.0836293791899</v>
+        <v>628.0836293791897</v>
       </c>
       <c r="P17" t="n">
-        <v>501.2053506296793</v>
+        <v>501.2053506296792</v>
       </c>
       <c r="Q17" t="n">
-        <v>327.7250051172675</v>
+        <v>327.7250051172674</v>
       </c>
       <c r="R17" t="n">
         <v>104.3632128128864</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>130.6352570350225</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>302.2207289493721</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>453.163512038153</v>
+        <v>271.3556785699279</v>
       </c>
       <c r="M18" t="n">
         <v>548.3728362997253</v>
       </c>
       <c r="N18" t="n">
-        <v>577.4408203258616</v>
+        <v>577.4408203258615</v>
       </c>
       <c r="O18" t="n">
-        <v>75.50401330636764</v>
+        <v>505.8013008025511</v>
       </c>
       <c r="P18" t="n">
         <v>386.4217863837359</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>207.889300017036</v>
       </c>
       <c r="R18" t="n">
-        <v>23.52276806059913</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>94.96764122482512</v>
+        <v>94.96764122482503</v>
       </c>
       <c r="K19" t="n">
         <v>269.9708765668823</v>
       </c>
       <c r="L19" t="n">
-        <v>394.063257367099</v>
+        <v>394.0632573670989</v>
       </c>
       <c r="M19" t="n">
-        <v>424.5218588844492</v>
+        <v>424.5218588844491</v>
       </c>
       <c r="N19" t="n">
-        <v>420.55435292446</v>
+        <v>420.5543529244599</v>
       </c>
       <c r="O19" t="n">
-        <v>374.3175407277342</v>
+        <v>374.3175407277341</v>
       </c>
       <c r="P19" t="n">
-        <v>300.4025372228924</v>
+        <v>300.4025372228922</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.9493126633629</v>
+        <v>131.9493126633628</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>130.6352570350225</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>302.2207289493721</v>
       </c>
       <c r="L21" t="n">
         <v>453.163512038153</v>
@@ -36209,7 +36209,7 @@
         <v>548.3728362997253</v>
       </c>
       <c r="N21" t="n">
-        <v>241.4749617620146</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>505.8013008025512</v>
@@ -36218,10 +36218,10 @@
         <v>386.4217863837359</v>
       </c>
       <c r="Q21" t="n">
-        <v>207.889300017036</v>
+        <v>170.6663008902772</v>
       </c>
       <c r="R21" t="n">
-        <v>23.52276806059913</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>561.9426211876209</v>
       </c>
       <c r="N24" t="n">
-        <v>78.24071804016494</v>
+        <v>591.3697570415846</v>
       </c>
       <c r="O24" t="n">
-        <v>518.5435566587685</v>
+        <v>428.9110051001646</v>
       </c>
       <c r="P24" t="n">
-        <v>396.6485700854704</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.84791735734572</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>400.7385547669078</v>
       </c>
       <c r="M25" t="n">
-        <v>431.5600240467889</v>
+        <v>431.5600240467888</v>
       </c>
       <c r="N25" t="n">
         <v>427.4251662503119</v>
@@ -36674,7 +36674,7 @@
         <v>135.695093217646</v>
       </c>
       <c r="K27" t="n">
-        <v>310.8687949043253</v>
+        <v>221.2362433457218</v>
       </c>
       <c r="L27" t="n">
         <v>464.7919039522134</v>
@@ -36683,19 +36683,19 @@
         <v>561.9426211876209</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>591.3697570415846</v>
       </c>
       <c r="O27" t="n">
         <v>518.5435566587685</v>
       </c>
       <c r="P27" t="n">
-        <v>260.1636540359438</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.7256340896916</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>26.84791735734572</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>98.14201984035117</v>
+        <v>98.1420198403512</v>
       </c>
       <c r="K28" t="n">
         <v>275.1873557627706</v>
@@ -36759,7 +36759,7 @@
         <v>400.7385547669078</v>
       </c>
       <c r="M28" t="n">
-        <v>431.5600240467888</v>
+        <v>431.5600240467889</v>
       </c>
       <c r="N28" t="n">
         <v>427.4251662503119</v>
@@ -36914,22 +36914,22 @@
         <v>310.8687949043253</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>464.7919039522134</v>
       </c>
       <c r="M30" t="n">
         <v>561.9426211876209</v>
       </c>
       <c r="N30" t="n">
-        <v>355.1549052600325</v>
+        <v>591.3697570415846</v>
       </c>
       <c r="O30" t="n">
-        <v>518.5435566587685</v>
+        <v>428.9110051001646</v>
       </c>
       <c r="P30" t="n">
-        <v>396.6485700854704</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.7256340896916</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>98.14201984035111</v>
+        <v>98.14201984035125</v>
       </c>
       <c r="K31" t="n">
-        <v>275.1873557627706</v>
+        <v>275.1873557627707</v>
       </c>
       <c r="L31" t="n">
-        <v>400.7385547669077</v>
+        <v>400.7385547669079</v>
       </c>
       <c r="M31" t="n">
-        <v>431.5600240467888</v>
+        <v>431.560024046789</v>
       </c>
       <c r="N31" t="n">
-        <v>427.4251662503118</v>
+        <v>427.4251662503119</v>
       </c>
       <c r="O31" t="n">
-        <v>380.6638489075206</v>
+        <v>380.6638489075207</v>
       </c>
       <c r="P31" t="n">
-        <v>305.8329002293162</v>
+        <v>305.8329002293163</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.7090145313853</v>
+        <v>135.7090145313854</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>135.695093217646</v>
       </c>
       <c r="K33" t="n">
-        <v>101.5576784719825</v>
+        <v>310.8687949043253</v>
       </c>
       <c r="L33" t="n">
         <v>464.7919039522134</v>
@@ -37160,16 +37160,16 @@
         <v>591.3697570415846</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>428.9110051001646</v>
       </c>
       <c r="P33" t="n">
-        <v>396.6485700854704</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.7256340896916</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.84791735734572</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>135.695093217646</v>
+        <v>46.06254165904249</v>
       </c>
       <c r="K36" t="n">
         <v>310.8687949043253</v>
@@ -37391,22 +37391,22 @@
         <v>464.7919039522134</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>561.9426211876209</v>
       </c>
       <c r="N36" t="n">
-        <v>425.4577051380944</v>
+        <v>591.3697570415846</v>
       </c>
       <c r="O36" t="n">
         <v>518.5435566587685</v>
       </c>
       <c r="P36" t="n">
-        <v>396.6485700854704</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.7256340896916</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.84791735734572</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>98.14201984035122</v>
+        <v>98.14201984035111</v>
       </c>
       <c r="K37" t="n">
-        <v>275.1873557627707</v>
+        <v>275.1873557627706</v>
       </c>
       <c r="L37" t="n">
-        <v>400.7385547669078</v>
+        <v>400.7385547669077</v>
       </c>
       <c r="M37" t="n">
-        <v>431.560024046789</v>
+        <v>431.5600240467888</v>
       </c>
       <c r="N37" t="n">
-        <v>427.425166250312</v>
+        <v>427.4251662503118</v>
       </c>
       <c r="O37" t="n">
-        <v>380.6638489075207</v>
+        <v>380.6638489075205</v>
       </c>
       <c r="P37" t="n">
-        <v>305.8329002293163</v>
+        <v>305.8329002293161</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.7090145313854</v>
+        <v>135.7090145313852</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>135.695093217646</v>
       </c>
       <c r="K39" t="n">
         <v>310.8687949043253</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>464.7919039522134</v>
       </c>
       <c r="M39" t="n">
-        <v>561.9426211876209</v>
+        <v>445.4621522716717</v>
       </c>
       <c r="N39" t="n">
         <v>591.3697570415846</v>
       </c>
       <c r="O39" t="n">
-        <v>391.1758807375165</v>
+        <v>518.5435566587685</v>
       </c>
       <c r="P39" t="n">
-        <v>396.6485700854704</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.7256340896916</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>26.84791735734572</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.1420198403512</v>
+        <v>98.14201984035108</v>
       </c>
       <c r="K40" t="n">
-        <v>275.1873557627706</v>
+        <v>275.1873557627705</v>
       </c>
       <c r="L40" t="n">
-        <v>400.7385547669078</v>
+        <v>400.7385547669077</v>
       </c>
       <c r="M40" t="n">
-        <v>431.5600240467889</v>
+        <v>431.5600240467888</v>
       </c>
       <c r="N40" t="n">
-        <v>427.4251662503119</v>
+        <v>427.4251662503118</v>
       </c>
       <c r="O40" t="n">
-        <v>380.6638489075206</v>
+        <v>380.6638489075205</v>
       </c>
       <c r="P40" t="n">
-        <v>305.8329002293162</v>
+        <v>305.8329002293161</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.7090145313853</v>
+        <v>135.7090145313852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>135.695093217646</v>
       </c>
       <c r="K42" t="n">
         <v>310.8687949043253</v>
@@ -37868,16 +37868,16 @@
         <v>561.9426211876209</v>
       </c>
       <c r="N42" t="n">
-        <v>544.6016511842338</v>
+        <v>591.3697570415846</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>32.26243501469411</v>
       </c>
       <c r="P42" t="n">
         <v>396.6485700854704</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.7256340896916</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>98.14201984035122</v>
+        <v>98.14201984035117</v>
       </c>
       <c r="K43" t="n">
-        <v>275.1873557627707</v>
+        <v>275.1873557627706</v>
       </c>
       <c r="L43" t="n">
         <v>400.7385547669078</v>
       </c>
       <c r="M43" t="n">
-        <v>431.560024046789</v>
+        <v>431.5600240467888</v>
       </c>
       <c r="N43" t="n">
-        <v>427.425166250312</v>
+        <v>427.4251662503119</v>
       </c>
       <c r="O43" t="n">
-        <v>380.6638489075207</v>
+        <v>380.6638489075206</v>
       </c>
       <c r="P43" t="n">
-        <v>305.8329002293163</v>
+        <v>305.8329002293162</v>
       </c>
       <c r="Q43" t="n">
-        <v>135.7090145313854</v>
+        <v>135.7090145313853</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>135.695093217646</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>310.8687949043253</v>
       </c>
       <c r="L45" t="n">
         <v>464.7919039522134</v>
       </c>
       <c r="M45" t="n">
-        <v>561.9426211876209</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>201.2317962121447</v>
+        <v>591.3697570415846</v>
       </c>
       <c r="O45" t="n">
         <v>518.5435566587685</v>
@@ -38114,7 +38114,7 @@
         <v>396.6485700854704</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.7256340896916</v>
+        <v>75.66149954354704</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>98.14201984035124</v>
+        <v>98.14201984035111</v>
       </c>
       <c r="K46" t="n">
-        <v>275.1873557627707</v>
+        <v>275.1873557627706</v>
       </c>
       <c r="L46" t="n">
-        <v>400.7385547669078</v>
+        <v>400.7385547669077</v>
       </c>
       <c r="M46" t="n">
-        <v>431.560024046789</v>
+        <v>431.5600240467888</v>
       </c>
       <c r="N46" t="n">
-        <v>427.425166250312</v>
+        <v>427.4251662503118</v>
       </c>
       <c r="O46" t="n">
-        <v>380.6638489075207</v>
+        <v>380.6638489075205</v>
       </c>
       <c r="P46" t="n">
-        <v>305.8329002293163</v>
+        <v>305.8329002293161</v>
       </c>
       <c r="Q46" t="n">
-        <v>135.7090145313854</v>
+        <v>135.7090145313852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
